--- a/__testing/portfolio.xlsx
+++ b/__testing/portfolio.xlsx
@@ -5,41 +5,118 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\__testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_EB3C0BB5DAB3D8799AE116C215E32A55D88B3639" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1B2A395A-5960-441D-A738-209AFA3AEF5F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_CAE6C32C0F51D32650D099EDB054F94F936453A4" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BE8C11A1-5BE3-46F6-9E77-A3B620C91899}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="900" windowWidth="21585" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2784" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="watchlist" sheetId="1" r:id="rId1"/>
     <sheet name="stocks" sheetId="2" r:id="rId2"/>
     <sheet name="portfolio" sheetId="3" r:id="rId3"/>
     <sheet name="trades" sheetId="4" r:id="rId4"/>
+    <sheet name="summary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>ticker</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
     <t>MSFT</t>
   </si>
   <si>
-    <t>AAPL</t>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>XOM</t>
   </si>
   <si>
     <t>current_price</t>
@@ -57,6 +134,9 @@
     <t>last_activity</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>asset</t>
   </si>
   <si>
@@ -66,97 +146,25 @@
     <t>STOCKS</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>buy_sell</t>
   </si>
   <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>TRV</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>XOM</t>
+    <t>01/05/2020 17:43:50</t>
+  </si>
+  <si>
+    <t>01/05/2020 17:43:52</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -521,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +745,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -779,11 +787,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -792,19 +798,59 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>96.05</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>960.5</v>
+      </c>
+      <c r="E2">
+        <v>24.711111111111119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>41.66</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>999.83999999999992</v>
+      </c>
+      <c r="E3">
+        <v>28.551107498475911</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -816,34 +862,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>8039.66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1960.34</v>
       </c>
     </row>
   </sheetData>
@@ -853,35 +897,99 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>960.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>999.83999999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543C7E2F-024B-49CE-9D69-1560F225A8CD}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/__testing/portfolio.xlsx
+++ b/__testing/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_CAE6C32C0F51D32650D099EDB054F94F936453A4" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BE8C11A1-5BE3-46F6-9E77-A3B620C91899}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_9AEA69BC0CEE76852F6AD0F83F14E9F7C3EC2658" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F68859F4-64FC-4E38-8A9C-DBD0A73EE7BD}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2784" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="watchlist" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>ticker</t>
   </si>
@@ -146,6 +146,9 @@
     <t>STOCKS</t>
   </si>
   <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -165,6 +168,54 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>01/05/2020 18:02:19</t>
+  </si>
+  <si>
+    <t>02/05/2020 06:30:28</t>
+  </si>
+  <si>
+    <t>02/05/2020 06:35:22</t>
+  </si>
+  <si>
+    <t>02/05/2020 07:35:22</t>
+  </si>
+  <si>
+    <t>04/05/2020 09:35:32</t>
+  </si>
+  <si>
+    <t>04/05/2020 10:35:22</t>
+  </si>
+  <si>
+    <t>04/05/2020 11:35:23</t>
+  </si>
+  <si>
+    <t>04/05/2020 12:57:22</t>
+  </si>
+  <si>
+    <t>04/05/2020 13:06:21</t>
+  </si>
+  <si>
+    <t>04/05/2020 13:35:27</t>
+  </si>
+  <si>
+    <t>04/05/2020 14:35:26</t>
+  </si>
+  <si>
+    <t>04/05/2020 15:35:19</t>
+  </si>
+  <si>
+    <t>04/05/2020 16:07:30</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>pct_change</t>
+  </si>
+  <si>
+    <t>rsi</t>
   </si>
 </sst>
 </file>
@@ -527,256 +578,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -818,16 +788,16 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>96.05</v>
+        <v>96.87</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>960.5</v>
+        <v>968.7</v>
       </c>
       <c r="E2">
-        <v>24.711111111111119</v>
+        <v>22.5840707964602</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -838,16 +808,16 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>41.66</v>
+        <v>42.65</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
       <c r="D3">
-        <v>999.83999999999992</v>
+        <v>1023.6</v>
       </c>
       <c r="E3">
-        <v>28.551107498475911</v>
+        <v>27.762557077625569</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -860,7 +830,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -887,7 +857,15 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>1960.34</v>
+        <v>1992.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>10031.959999999999</v>
       </c>
     </row>
   </sheetData>
@@ -905,13 +883,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -925,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -945,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -966,30 +944,210 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543C7E2F-024B-49CE-9D69-1560F225A8CD}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>8039.66</v>
+      </c>
+      <c r="C2">
+        <v>1960.34</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>8039.66</v>
+      </c>
+      <c r="C3">
+        <v>1960.34</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>8039.66</v>
+      </c>
+      <c r="C4">
+        <v>1960.34</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>8039.66</v>
+      </c>
+      <c r="C5">
+        <v>1960.34</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>8039.66</v>
+      </c>
+      <c r="C6">
+        <v>1927.38</v>
+      </c>
+      <c r="D6">
+        <v>9967.0400000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>8039.66</v>
+      </c>
+      <c r="C7">
+        <v>1951.96</v>
+      </c>
+      <c r="D7">
+        <v>9991.619999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>8039.66</v>
+      </c>
+      <c r="C8">
+        <v>1972.36</v>
+      </c>
+      <c r="D8">
+        <v>10012.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>8039.66</v>
+      </c>
+      <c r="C9">
+        <v>1970.36</v>
+      </c>
+      <c r="D9">
+        <v>10010.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>8039.66</v>
+      </c>
+      <c r="C10">
+        <v>1968.6</v>
+      </c>
+      <c r="D10">
+        <v>10008.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>8039.66</v>
+      </c>
+      <c r="C11">
+        <v>1975.52</v>
+      </c>
+      <c r="D11">
+        <v>10015.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>8039.66</v>
+      </c>
+      <c r="C12">
+        <v>1974.18</v>
+      </c>
+      <c r="D12">
+        <v>10013.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>8039.66</v>
+      </c>
+      <c r="C13">
+        <v>1992.3</v>
+      </c>
+      <c r="D13">
+        <v>10031.959999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>8039.66</v>
+      </c>
+      <c r="C14">
+        <v>1992.3</v>
+      </c>
+      <c r="D14">
+        <v>10031.959999999999</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/__testing/portfolio.xlsx
+++ b/__testing/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cefadc21042b88c/PET_PROJECTS/Al-the-Trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_B0A5AAA6EA16F6A9E5FADCB10392DD110A25B745" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{90733D49-C59D-4BB2-AFA7-D01FCA06BDE1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{D393F9D2-285A-41ED-9F07-FD42D3DAFCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2784" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="watchlist" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,12 @@
     <sheet name="trades" sheetId="4" r:id="rId4"/>
     <sheet name="summary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
   <si>
     <t>ticker</t>
   </si>
@@ -46,94 +38,97 @@
     <t>rsi</t>
   </si>
   <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
     <t>TRV</t>
   </si>
   <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
     <t>CAT</t>
   </si>
   <si>
-    <t>WBA</t>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>JNJ</t>
   </si>
   <si>
     <t>CSCO</t>
   </si>
   <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>IBM</t>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>DIS</t>
   </si>
   <si>
     <t>WMT</t>
   </si>
   <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>HD</t>
+    <t>purch_price</t>
   </si>
   <si>
     <t>current_price</t>
@@ -145,6 +140,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>performance</t>
+  </si>
+  <si>
     <t>current_rsi</t>
   </si>
   <si>
@@ -181,6 +179,147 @@
     <t>05/05/2020 09:35:14</t>
   </si>
   <si>
+    <t>05/05/2020 15:35:05</t>
+  </si>
+  <si>
+    <t>06/05/2020 09:35:11</t>
+  </si>
+  <si>
+    <t>06/05/2020 11:35:12</t>
+  </si>
+  <si>
+    <t>06/05/2020 12:35:05</t>
+  </si>
+  <si>
+    <t>12/05/2020 07:49:21</t>
+  </si>
+  <si>
+    <t>12/05/2020 07:49:24</t>
+  </si>
+  <si>
+    <t>12/05/2020 09:35:10</t>
+  </si>
+  <si>
+    <t>12/05/2020 14:35:11</t>
+  </si>
+  <si>
+    <t>12/05/2020 17:35:15</t>
+  </si>
+  <si>
+    <t>13/05/2020 09:35:40</t>
+  </si>
+  <si>
+    <t>13/05/2020 10:35:18</t>
+  </si>
+  <si>
+    <t>13/05/2020 10:35:20</t>
+  </si>
+  <si>
+    <t>13/05/2020 10:35:28</t>
+  </si>
+  <si>
+    <t>13/05/2020 13:03:20</t>
+  </si>
+  <si>
+    <t>13/05/2020 13:03:21</t>
+  </si>
+  <si>
+    <t>13/05/2020 13:35:25</t>
+  </si>
+  <si>
+    <t>14/05/2020 09:35:49</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>26/05/2020 12:28:56</t>
+  </si>
+  <si>
+    <t>26/05/2020 12:29:00</t>
+  </si>
+  <si>
+    <t>27/05/2020 11:02:26</t>
+  </si>
+  <si>
+    <t>27/05/2020 11:02:28</t>
+  </si>
+  <si>
+    <t>27/05/2020 11:02:31</t>
+  </si>
+  <si>
+    <t>27/05/2020 11:02:32</t>
+  </si>
+  <si>
+    <t>27/05/2020 11:02:33</t>
+  </si>
+  <si>
+    <t>27/05/2020 11:02:34</t>
+  </si>
+  <si>
+    <t>27/05/2020 11:02:37</t>
+  </si>
+  <si>
+    <t>27/05/2020 11:02:38</t>
+  </si>
+  <si>
+    <t>28/05/2020 09:53:16</t>
+  </si>
+  <si>
+    <t>28/05/2020 10:04:14</t>
+  </si>
+  <si>
+    <t>28/05/2020 10:04:16</t>
+  </si>
+  <si>
+    <t>28/05/2020 10:04:17</t>
+  </si>
+  <si>
+    <t>28/05/2020 10:04:23</t>
+  </si>
+  <si>
+    <t>28/05/2020 10:04:25</t>
+  </si>
+  <si>
+    <t>01/06/2020 18:33:01</t>
+  </si>
+  <si>
+    <t>02/06/2020 18:50:13</t>
+  </si>
+  <si>
+    <t>03/06/2020 18:22:42</t>
+  </si>
+  <si>
+    <t>05/06/2020 12:11:52</t>
+  </si>
+  <si>
+    <t>12/06/2020 13:59:22</t>
+  </si>
+  <si>
+    <t>12/06/2020 13:59:23</t>
+  </si>
+  <si>
+    <t>12/06/2020 13:59:31</t>
+  </si>
+  <si>
+    <t>19/06/2020 20:02:07</t>
+  </si>
+  <si>
+    <t>19/06/2020 20:02:12</t>
+  </si>
+  <si>
+    <t>29/06/2020 17:43:44</t>
+  </si>
+  <si>
+    <t>29/06/2020 17:43:49</t>
+  </si>
+  <si>
+    <t>09/07/2020 17:28:44</t>
+  </si>
+  <si>
+    <t>09/07/2020 17:28:45</t>
+  </si>
+  <si>
     <t>cash</t>
   </si>
   <si>
@@ -199,26 +338,122 @@
     <t>04/05/2020 17:38:22</t>
   </si>
   <si>
-    <t>05/05/2020 09:35:16</t>
-  </si>
-  <si>
-    <t>05/05/2020 10:35:09</t>
-  </si>
-  <si>
-    <t>05/05/2020 14:02:43</t>
-  </si>
-  <si>
-    <t>purch_price</t>
-  </si>
-  <si>
-    <t>performance</t>
+    <t>05/05/2020 16:35:30</t>
+  </si>
+  <si>
+    <t>06/05/2020 17:35:03</t>
+  </si>
+  <si>
+    <t>07/05/2020 18:35:02</t>
+  </si>
+  <si>
+    <t>08/05/2020 16:35:02</t>
+  </si>
+  <si>
+    <t>09/05/2020 06:02:00</t>
+  </si>
+  <si>
+    <t>11/05/2020 17:35:02</t>
+  </si>
+  <si>
+    <t>12/05/2020 19:35:03</t>
+  </si>
+  <si>
+    <t>13/05/2020 18:35:07</t>
+  </si>
+  <si>
+    <t>14/05/2020 15:35:07</t>
+  </si>
+  <si>
+    <t>15/05/2020 05:44:59</t>
+  </si>
+  <si>
+    <t>25/05/2020 09:35:10</t>
+  </si>
+  <si>
+    <t>26/05/2020 17:35:11</t>
+  </si>
+  <si>
+    <t>27/05/2020 18:44:05</t>
+  </si>
+  <si>
+    <t>28/05/2020 17:04:00</t>
+  </si>
+  <si>
+    <t>29/05/2020 18:32:43</t>
+  </si>
+  <si>
+    <t>01/06/2020 18:32:57</t>
+  </si>
+  <si>
+    <t>02/06/2020 18:50:11</t>
+  </si>
+  <si>
+    <t>03/06/2020 18:22:41</t>
+  </si>
+  <si>
+    <t>05/06/2020 16:57:59</t>
+  </si>
+  <si>
+    <t>08/06/2020 16:37:45</t>
+  </si>
+  <si>
+    <t>09/06/2020 18:08:41</t>
+  </si>
+  <si>
+    <t>10/06/2020 17:20:06</t>
+  </si>
+  <si>
+    <t>12/06/2020 13:59:17</t>
+  </si>
+  <si>
+    <t>14/06/2020 06:29:50</t>
+  </si>
+  <si>
+    <t>15/06/2020 17:49:50</t>
+  </si>
+  <si>
+    <t>16/06/2020 13:02:42</t>
+  </si>
+  <si>
+    <t>19/06/2020 20:01:48</t>
+  </si>
+  <si>
+    <t>29/06/2020 17:43:25</t>
+  </si>
+  <si>
+    <t>30/06/2020 16:55:00</t>
+  </si>
+  <si>
+    <t>01/07/2020 18:35:15</t>
+  </si>
+  <si>
+    <t>02/07/2020 17:51:31</t>
+  </si>
+  <si>
+    <t>03/07/2020 17:55:02</t>
+  </si>
+  <si>
+    <t>06/07/2020 16:57:17</t>
+  </si>
+  <si>
+    <t>07/07/2020 17:15:38</t>
+  </si>
+  <si>
+    <t>08/07/2020 20:00:23</t>
+  </si>
+  <si>
+    <t>09/07/2020 17:28:26</t>
+  </si>
+  <si>
+    <t>10/07/2020 16:50:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,12 +465,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,12 +502,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -585,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,13 +836,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>98.09</v>
+        <v>42.65</v>
       </c>
       <c r="C2">
-        <v>1.2176</v>
+        <v>3.1190000000000002</v>
       </c>
       <c r="D2">
-        <v>22.39025827359325</v>
+        <v>35.450346420323307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,13 +850,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>110.35</v>
+        <v>85.23</v>
       </c>
       <c r="C3">
-        <v>2.4415</v>
+        <v>3.0093999999999999</v>
       </c>
       <c r="D3">
-        <v>30.036844259898249</v>
+        <v>37.924757281553418</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,13 +864,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>42.12</v>
+        <v>93.23</v>
       </c>
       <c r="C4">
-        <v>-0.77739999999999998</v>
+        <v>2.9369999999999998</v>
       </c>
       <c r="D4">
-        <v>32.20755983001564</v>
+        <v>38.453038674033181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,13 +878,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>41.35</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="C5">
-        <v>1.0508</v>
+        <v>2.8454000000000002</v>
       </c>
       <c r="D5">
-        <v>39.372409709887542</v>
+        <v>41.489361702127638</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,13 +892,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>58.85</v>
+        <v>97.99</v>
       </c>
       <c r="C6">
-        <v>-3.6981999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="D6">
-        <v>39.47023341201151</v>
+        <v>42.52520824199911</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,13 +906,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>121.68</v>
+        <v>291.23</v>
       </c>
       <c r="C7">
-        <v>-0.15590000000000001</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D7">
-        <v>39.578947368421069</v>
+        <v>43.825785696609763</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,13 +920,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>123.7</v>
+        <v>152.85</v>
       </c>
       <c r="C8">
-        <v>0.63460000000000005</v>
+        <v>0.9244</v>
       </c>
       <c r="D8">
-        <v>40.718562874251489</v>
+        <v>44.615384615384627</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,13 +934,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>78.14</v>
+        <v>59.64</v>
       </c>
       <c r="C9">
-        <v>1.6654</v>
+        <v>2.6328999999999998</v>
       </c>
       <c r="D9">
-        <v>40.812182741116757</v>
+        <v>44.756277695716392</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,13 +948,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>93.51</v>
+        <v>192.55</v>
       </c>
       <c r="C10">
-        <v>1.4869000000000001</v>
+        <v>0.1769</v>
       </c>
       <c r="D10">
-        <v>40.974039042060809</v>
+        <v>46.567450792126778</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,13 +962,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>104.58</v>
+        <v>118.35</v>
       </c>
       <c r="C11">
-        <v>1.3569</v>
+        <v>2.2816000000000001</v>
       </c>
       <c r="D11">
-        <v>40.97835430178948</v>
+        <v>47.961630695443617</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,13 +976,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>131.46</v>
+        <v>113.84</v>
       </c>
       <c r="C12">
-        <v>-1.4320999999999999</v>
+        <v>3.4533</v>
       </c>
       <c r="D12">
-        <v>41.256777314038317</v>
+        <v>48.059701492537307</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,13 +990,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>44.88</v>
+        <v>96.27</v>
       </c>
       <c r="C13">
-        <v>4.0334000000000003</v>
+        <v>5.4667000000000003</v>
       </c>
       <c r="D13">
-        <v>41.71095925082259</v>
+        <v>48.226270373921359</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,13 +1004,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>287.54000000000002</v>
+        <v>205.56</v>
       </c>
       <c r="C14">
-        <v>1.0649999999999999</v>
+        <v>4.4352999999999998</v>
       </c>
       <c r="D14">
-        <v>42.897938912341708</v>
+        <v>48.749187784275513</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,13 +1018,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>45.14</v>
+        <v>76.73</v>
       </c>
       <c r="C15">
-        <v>-1.0087999999999999</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>44.061100869107143</v>
+        <v>50.919540229885122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,13 +1032,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>33.06</v>
+        <v>45.15</v>
       </c>
       <c r="C16">
-        <v>-2.5640999999999998</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="D16">
-        <v>44.139316811788348</v>
+        <v>51.971326164874547</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,13 +1046,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>91.44</v>
+        <v>178.44</v>
       </c>
       <c r="C17">
-        <v>2.2361</v>
+        <v>2.9777999999999998</v>
       </c>
       <c r="D17">
-        <v>44.421380384016587</v>
+        <v>52.428376534788541</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,13 +1060,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>176.03</v>
+        <v>40.76</v>
       </c>
       <c r="C18">
-        <v>-0.60419999999999996</v>
+        <v>3.3469000000000002</v>
       </c>
       <c r="D18">
-        <v>45.541048904624901</v>
+        <v>55.118110236220481</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,13 +1074,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>56.24</v>
+        <v>184.88</v>
       </c>
       <c r="C19">
-        <v>-1.0382</v>
+        <v>0.2984</v>
       </c>
       <c r="D19">
-        <v>45.871024219433927</v>
+        <v>55.626326963906621</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,13 +1088,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>57.99</v>
+        <v>59.53</v>
       </c>
       <c r="C20">
-        <v>0.90480000000000005</v>
+        <v>1.9</v>
       </c>
       <c r="D20">
-        <v>47.881224868543157</v>
+        <v>56.439393939393973</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>178.84</v>
+        <v>54.49</v>
       </c>
       <c r="C21">
-        <v>2.4460000000000002</v>
+        <v>1.0197000000000001</v>
       </c>
       <c r="D21">
-        <v>51.715243745163768</v>
+        <v>56.761268781302178</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,13 +1116,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>37.619999999999997</v>
+        <v>128.01</v>
       </c>
       <c r="C22">
-        <v>-5.3100000000000001E-2</v>
+        <v>1.8133999999999999</v>
       </c>
       <c r="D22">
-        <v>51.803278688524593</v>
+        <v>59.126106194690273</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,13 +1130,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>86.38</v>
+        <v>250.11</v>
       </c>
       <c r="C23">
-        <v>-2.1966000000000001</v>
+        <v>0.86709999999999998</v>
       </c>
       <c r="D23">
-        <v>52.891370924157812</v>
+        <v>59.456217512994847</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,13 +1144,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>293.16000000000003</v>
+        <v>142.37</v>
       </c>
       <c r="C24">
-        <v>1.4149</v>
+        <v>-8.4199999999999997E-2</v>
       </c>
       <c r="D24">
-        <v>54.15306939227878</v>
+        <v>65.033407572383197</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,13 +1158,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>181.87</v>
+        <v>46.66</v>
       </c>
       <c r="C25">
-        <v>-0.4325</v>
+        <v>-8.5699999999999998E-2</v>
       </c>
       <c r="D25">
-        <v>55.083868295713401</v>
+        <v>67.652859960552206</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,13 +1172,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>148.4</v>
+        <v>33.83</v>
       </c>
       <c r="C26">
-        <v>-0.1346</v>
+        <v>1.1057999999999999</v>
       </c>
       <c r="D26">
-        <v>57.731213872832363</v>
+        <v>68.105515587529965</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,13 +1186,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>85.75</v>
+        <v>383.68</v>
       </c>
       <c r="C27">
-        <v>0.2455</v>
+        <v>0.1749</v>
       </c>
       <c r="D27">
-        <v>58.684128468974102</v>
+        <v>70.951957295373688</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,13 +1200,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>115.77</v>
+        <v>213.67</v>
       </c>
       <c r="C28">
-        <v>-0.89880000000000004</v>
+        <v>-0.30330000000000001</v>
       </c>
       <c r="D28">
-        <v>59.798994974874347</v>
+        <v>74.192377495462807</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,13 +1214,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>176.15</v>
+        <v>123.89</v>
       </c>
       <c r="C29">
-        <v>0.33040000000000003</v>
+        <v>1.1512</v>
       </c>
       <c r="D29">
-        <v>62.925944865417719</v>
+        <v>74.71169686985175</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,13 +1228,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>148.27000000000001</v>
+        <v>119.34</v>
       </c>
       <c r="C30">
-        <v>-1.35E-2</v>
+        <v>2.1659000000000002</v>
       </c>
       <c r="D30">
-        <v>70.267368194996351</v>
+        <v>75.285171102661593</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,13 +1242,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>221.84</v>
+        <v>130.68</v>
       </c>
       <c r="C31">
-        <v>1.4961</v>
+        <v>2.2934999999999999</v>
       </c>
       <c r="D31">
-        <v>73.793329509137095</v>
+        <v>76.690997566909971</v>
       </c>
     </row>
   </sheetData>
@@ -1032,124 +1258,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>96.05</v>
+        <v>149.11000000000001</v>
       </c>
       <c r="C2">
-        <v>98.09</v>
+        <v>142.37</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>980.90000000000009</v>
+        <v>427.11</v>
       </c>
       <c r="F2">
-        <v>2.1238938053097511E-2</v>
+        <v>-4.5202</v>
       </c>
       <c r="G2">
-        <v>22.39025827359325</v>
+        <v>65.033407572383197</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>41.66</v>
+        <v>35.46</v>
       </c>
       <c r="C3">
-        <v>42.12</v>
+        <v>33.83</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1010.88</v>
+        <v>778.08999999999992</v>
       </c>
       <c r="F3">
-        <v>1.1041766682669207E-2</v>
+        <v>-4.5967000000000002</v>
       </c>
       <c r="G3">
-        <v>32.20755983001564</v>
+        <v>68.105515587529965</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>58.26</v>
+      </c>
+      <c r="C4">
+        <v>59.53</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>833.42000000000007</v>
+      </c>
+      <c r="F4">
+        <v>2.1798999999999999</v>
+      </c>
+      <c r="G4">
+        <v>56.439393939393973</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>278.89</v>
+      </c>
+      <c r="C5">
+        <v>291.23</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>873.69</v>
+      </c>
+      <c r="F5">
+        <v>4.4246999999999996</v>
+      </c>
+      <c r="G5">
+        <v>43.825785696609763</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>45.98</v>
+      </c>
+      <c r="C6">
+        <v>42.65</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>511.8</v>
+      </c>
+      <c r="F6">
+        <v>-7.2423000000000002</v>
+      </c>
+      <c r="G6">
+        <v>35.450346420323307</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>97.81</v>
+      </c>
+      <c r="C7">
+        <v>96.27</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>577.62</v>
+      </c>
+      <c r="F7">
+        <v>-1.5745</v>
+      </c>
+      <c r="G7">
+        <v>48.226270373921359</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>61.92</v>
+      </c>
+      <c r="C8">
+        <v>59.64</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>417.48</v>
+      </c>
+      <c r="F8">
+        <v>-3.6821999999999999</v>
+      </c>
+      <c r="G8">
+        <v>44.756277695716392</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>94.52</v>
+      </c>
+      <c r="C9">
+        <v>93.23</v>
+      </c>
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>110.2</v>
-      </c>
-      <c r="C4">
-        <v>110.35</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>772.44999999999993</v>
-      </c>
-      <c r="F4">
-        <v>1.3611615245008313E-3</v>
-      </c>
-      <c r="G4">
-        <v>30.036844259898249</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
+      <c r="E9">
+        <v>466.15</v>
+      </c>
+      <c r="F9">
+        <v>-1.3648</v>
+      </c>
+      <c r="G9">
+        <v>38.453038674033181</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1163,34 +1513,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>7268.26</v>
+        <v>5740.5700000000024</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>2764.23</v>
+        <v>4885.3600000000006</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>10032.49</v>
+        <v>10625.93</v>
       </c>
     </row>
   </sheetData>
@@ -1200,43 +1550,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1244,23 +1592,19 @@
       <c r="F2">
         <v>960.5</v>
       </c>
-      <c r="G2">
-        <f>F2/E2</f>
-        <v>96.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>24</v>
@@ -1268,23 +1612,19 @@
       <c r="F3">
         <v>999.83999999999992</v>
       </c>
-      <c r="G3">
-        <f>F3/E3</f>
-        <v>41.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -1292,9 +1632,945 @@
       <c r="F4">
         <v>771.4</v>
       </c>
-      <c r="G4">
-        <f>F4/E4</f>
-        <v>110.2</v>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>708.59999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>622.04999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>499.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>458.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>467.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>447.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>352.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>176.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>297.81000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>237.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>265.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>241.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>172.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>120.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>172.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>124.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>152.52000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>187.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>398.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>310.83999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>203.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>294.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>847.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>144.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1063.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>1021.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>673.19999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>195.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>251.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>189.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>281.76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>815.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>619.70000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>474.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>492.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>636.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>815.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>836.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>795.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>551.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>586.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>433.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>472.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>840.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -1304,29 +2580,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>8039.66</v>
@@ -1340,7 +2618,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>8039.66</v>
@@ -1354,7 +2632,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>8039.66</v>
@@ -1368,44 +2646,520 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B5">
-        <v>7268.26</v>
+        <v>6559.66</v>
       </c>
       <c r="C5">
-        <v>2776.38</v>
+        <v>3447.35</v>
       </c>
       <c r="D5">
-        <v>10044.64</v>
+        <v>10007.01</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B6">
-        <v>7268.26</v>
+        <v>4979.93</v>
       </c>
       <c r="C6">
-        <v>2764.23</v>
+        <v>4928.07</v>
       </c>
       <c r="D6">
-        <v>10032.49</v>
+        <v>9908</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>7268.26</v>
+        <v>4979.93</v>
       </c>
       <c r="C7">
-        <v>2764.23</v>
+        <v>4916.6100000000006</v>
       </c>
       <c r="D7">
-        <v>10032.49</v>
+        <v>9896.5400000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>4979.93</v>
+      </c>
+      <c r="C8">
+        <v>5044.8500000000004</v>
+      </c>
+      <c r="D8">
+        <v>10024.780000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>4979.93</v>
+      </c>
+      <c r="C9">
+        <v>5044.8500000000004</v>
+      </c>
+      <c r="D9">
+        <v>10024.780000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>4979.93</v>
+      </c>
+      <c r="C10">
+        <v>4981.0499999999993</v>
+      </c>
+      <c r="D10">
+        <v>9960.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>3242.84</v>
+      </c>
+      <c r="C11">
+        <v>6603.5999999999995</v>
+      </c>
+      <c r="D11">
+        <v>9846.4399999999987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>1734.2</v>
+      </c>
+      <c r="C12">
+        <v>7930.2000000000007</v>
+      </c>
+      <c r="D12">
+        <v>9664.4000000000015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>1858.54</v>
+      </c>
+      <c r="C13">
+        <v>7851.4400000000014</v>
+      </c>
+      <c r="D13">
+        <v>9709.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>1858.54</v>
+      </c>
+      <c r="C14">
+        <v>7897.78</v>
+      </c>
+      <c r="D14">
+        <v>9756.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>1858.54</v>
+      </c>
+      <c r="C15">
+        <v>8207.9500000000007</v>
+      </c>
+      <c r="D15">
+        <v>10066.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>2140.56</v>
+      </c>
+      <c r="C16">
+        <v>8223.31</v>
+      </c>
+      <c r="D16">
+        <v>10363.870000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>5590.56</v>
+      </c>
+      <c r="C17">
+        <v>4948.5300000000007</v>
+      </c>
+      <c r="D17">
+        <v>10539.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>8202.52</v>
+      </c>
+      <c r="C18">
+        <v>2363.38</v>
+      </c>
+      <c r="D18">
+        <v>10565.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>8202.52</v>
+      </c>
+      <c r="C19">
+        <v>2397.61</v>
+      </c>
+      <c r="D19">
+        <v>10600.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>7386.9400000000014</v>
+      </c>
+      <c r="C20">
+        <v>3188.97</v>
+      </c>
+      <c r="D20">
+        <v>10575.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>6767.2400000000016</v>
+      </c>
+      <c r="C21">
+        <v>3845.63</v>
+      </c>
+      <c r="D21">
+        <v>10612.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>7733.7200000000012</v>
+      </c>
+      <c r="C22">
+        <v>2890.52</v>
+      </c>
+      <c r="D22">
+        <v>10624.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>8370.18</v>
+      </c>
+      <c r="C23">
+        <v>2242.15</v>
+      </c>
+      <c r="D23">
+        <v>10612.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>8370.18</v>
+      </c>
+      <c r="C24">
+        <v>2251.8000000000002</v>
+      </c>
+      <c r="D24">
+        <v>10621.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>8370.18</v>
+      </c>
+      <c r="C25">
+        <v>2241.5100000000002</v>
+      </c>
+      <c r="D25">
+        <v>10611.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>8370.18</v>
+      </c>
+      <c r="C26">
+        <v>2238.84</v>
+      </c>
+      <c r="D26">
+        <v>10609.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>5922.63</v>
+      </c>
+      <c r="C27">
+        <v>4568.08</v>
+      </c>
+      <c r="D27">
+        <v>10490.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>5922.63</v>
+      </c>
+      <c r="C28">
+        <v>4641.95</v>
+      </c>
+      <c r="D28">
+        <v>10564.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29">
+        <v>5922.63</v>
+      </c>
+      <c r="C29">
+        <v>4652.21</v>
+      </c>
+      <c r="D29">
+        <v>10574.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>5922.63</v>
+      </c>
+      <c r="C30">
+        <v>4734.7</v>
+      </c>
+      <c r="D30">
+        <v>10657.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>4784.01</v>
+      </c>
+      <c r="C31">
+        <v>5821.73</v>
+      </c>
+      <c r="D31">
+        <v>10605.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>3877.9700000000012</v>
+      </c>
+      <c r="C32">
+        <v>6631.96</v>
+      </c>
+      <c r="D32">
+        <v>10509.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>3877.9700000000012</v>
+      </c>
+      <c r="C33">
+        <v>6702.56</v>
+      </c>
+      <c r="D33">
+        <v>10580.53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>3877.9700000000012</v>
+      </c>
+      <c r="C34">
+        <v>6685.8899999999994</v>
+      </c>
+      <c r="D34">
+        <v>10563.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>3877.9700000000012</v>
+      </c>
+      <c r="C35">
+        <v>6703.36</v>
+      </c>
+      <c r="D35">
+        <v>10581.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>3877.9700000000012</v>
+      </c>
+      <c r="C36">
+        <v>6703.36</v>
+      </c>
+      <c r="D36">
+        <v>10581.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>3877.9700000000012</v>
+      </c>
+      <c r="C37">
+        <v>6780.16</v>
+      </c>
+      <c r="D37">
+        <v>10658.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38">
+        <v>3877.9700000000012</v>
+      </c>
+      <c r="C38">
+        <v>6719.39</v>
+      </c>
+      <c r="D38">
+        <v>10597.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39">
+        <v>3877.9700000000012</v>
+      </c>
+      <c r="C39">
+        <v>6710.83</v>
+      </c>
+      <c r="D39">
+        <v>10588.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40">
+        <v>5740.5700000000024</v>
+      </c>
+      <c r="C40">
+        <v>4792.0300000000007</v>
+      </c>
+      <c r="D40">
+        <v>10532.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41">
+        <v>5740.5700000000024</v>
+      </c>
+      <c r="C41">
+        <v>4885.3600000000006</v>
+      </c>
+      <c r="D41">
+        <v>10625.93</v>
       </c>
     </row>
   </sheetData>

--- a/__testing/portfolio.xlsx
+++ b/__testing/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cefadc21042b88c/PET_PROJECTS/Al-the-Trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{D393F9D2-285A-41ED-9F07-FD42D3DAFCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{55463CDA-9439-4B14-82FD-521C03998997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25CB74D8-7E05-4478-AB9A-4FD377422467}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,22 @@
     <sheet name="trades" sheetId="4" r:id="rId4"/>
     <sheet name="summary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="151">
   <si>
     <t>ticker</t>
   </si>
@@ -38,96 +48,96 @@
     <t>rsi</t>
   </si>
   <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
     <t>XOM</t>
   </si>
   <si>
-    <t>CVX</t>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>RTX</t>
   </si>
   <si>
     <t>AXP</t>
   </si>
   <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>NKE</t>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>MMM</t>
   </si>
   <si>
     <t>UNH</t>
   </si>
   <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>DIS</t>
   </si>
   <si>
     <t>IBM</t>
   </si>
   <si>
-    <t>TRV</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>DOW</t>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>PFE</t>
   </si>
   <si>
     <t>MCD</t>
   </si>
   <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
     <t>CAT</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
     <t>HD</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>JNJ</t>
   </si>
   <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
     <t>purch_price</t>
   </si>
   <si>
@@ -320,6 +330,15 @@
     <t>09/07/2020 17:28:45</t>
   </si>
   <si>
+    <t>13/07/2020 17:30:12</t>
+  </si>
+  <si>
+    <t>13/07/2020 17:30:14</t>
+  </si>
+  <si>
+    <t>14/07/2020 17:11:16</t>
+  </si>
+  <si>
     <t>cash</t>
   </si>
   <si>
@@ -447,6 +466,27 @@
   </si>
   <si>
     <t>10/07/2020 16:50:27</t>
+  </si>
+  <si>
+    <t>11/07/2020 18:08:40</t>
+  </si>
+  <si>
+    <t>12/07/2020 08:11:30</t>
+  </si>
+  <si>
+    <t>13/07/2020 17:29:49</t>
+  </si>
+  <si>
+    <t>14/07/2020 17:10:59</t>
+  </si>
+  <si>
+    <t>15/07/2020 16:39:54</t>
+  </si>
+  <si>
+    <t>16/07/2020 16:59:59</t>
+  </si>
+  <si>
+    <t>17/07/2020 17:11:05</t>
   </si>
 </sst>
 </file>
@@ -811,9 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -836,13 +874,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>42.65</v>
+        <v>96.28</v>
       </c>
       <c r="C2">
-        <v>3.1190000000000002</v>
+        <v>-1.0076000000000001</v>
       </c>
       <c r="D2">
-        <v>35.450346420323307</v>
+        <v>42.780389523169923</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,13 +888,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>85.23</v>
+        <v>202.88</v>
       </c>
       <c r="C3">
-        <v>3.0093999999999999</v>
+        <v>-0.51</v>
       </c>
       <c r="D3">
-        <v>37.924757281553418</v>
+        <v>43.731454005934722</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>93.23</v>
+        <v>175.66</v>
       </c>
       <c r="C4">
-        <v>2.9369999999999998</v>
+        <v>-1.7012</v>
       </c>
       <c r="D4">
-        <v>38.453038674033181</v>
+        <v>45.454545454545453</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,13 +916,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>40.119999999999997</v>
+        <v>87.19</v>
       </c>
       <c r="C5">
-        <v>2.8454000000000002</v>
+        <v>-1.3241000000000001</v>
       </c>
       <c r="D5">
-        <v>41.489361702127638</v>
+        <v>46.005706134094133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,13 +930,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>97.99</v>
+        <v>43.52</v>
       </c>
       <c r="C6">
-        <v>1.0309999999999999</v>
+        <v>-1.7163999999999999</v>
       </c>
       <c r="D6">
-        <v>42.52520824199911</v>
+        <v>46.37305699481869</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,13 +944,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>291.23</v>
+        <v>41.42</v>
       </c>
       <c r="C7">
-        <v>2.4E-2</v>
+        <v>0.16930000000000001</v>
       </c>
       <c r="D7">
-        <v>43.825785696609763</v>
+        <v>46.875000000000021</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,13 +958,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>152.85</v>
+        <v>195.09</v>
       </c>
       <c r="C8">
-        <v>0.9244</v>
+        <v>0.82169999999999999</v>
       </c>
       <c r="D8">
-        <v>44.615384615384627</v>
+        <v>48.859166011014977</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,13 +972,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>59.64</v>
+        <v>62.2</v>
       </c>
       <c r="C9">
-        <v>2.6328999999999998</v>
+        <v>-0.27260000000000001</v>
       </c>
       <c r="D9">
-        <v>44.756277695716392</v>
+        <v>51.590380139643138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,13 +986,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>192.55</v>
+        <v>95.18</v>
       </c>
       <c r="C10">
-        <v>0.1769</v>
+        <v>-1.1836</v>
       </c>
       <c r="D10">
-        <v>46.567450792126778</v>
+        <v>52.466627974463179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,13 +1000,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>118.35</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>2.2816000000000001</v>
+        <v>1.4541999999999999</v>
       </c>
       <c r="D11">
-        <v>47.961630695443617</v>
+        <v>57.754010695187162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -976,13 +1014,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>113.84</v>
+        <v>79.87</v>
       </c>
       <c r="C12">
-        <v>3.4533</v>
+        <v>0.59189999999999998</v>
       </c>
       <c r="D12">
-        <v>48.059701492537307</v>
+        <v>57.841726618705067</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,13 +1028,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>96.27</v>
+        <v>159.83000000000001</v>
       </c>
       <c r="C13">
-        <v>5.4667000000000003</v>
+        <v>-0.41739999999999999</v>
       </c>
       <c r="D13">
-        <v>48.226270373921359</v>
+        <v>58.003442340791793</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,13 +1042,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>205.56</v>
+        <v>306.52999999999997</v>
       </c>
       <c r="C14">
-        <v>4.4352999999999998</v>
+        <v>-0.2019</v>
       </c>
       <c r="D14">
-        <v>48.749187784275513</v>
+        <v>59.162419676490117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,13 +1056,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>76.73</v>
+        <v>46.75</v>
       </c>
       <c r="C15">
-        <v>5.2200000000000003E-2</v>
+        <v>2.1187999999999998</v>
       </c>
       <c r="D15">
-        <v>50.919540229885122</v>
+        <v>60.218978102189759</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,13 +1070,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>45.15</v>
+        <v>43.67</v>
       </c>
       <c r="C16">
-        <v>2.8239999999999998</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="D16">
-        <v>51.971326164874547</v>
+        <v>62.351543942992869</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,13 +1084,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>178.44</v>
+        <v>211.41</v>
       </c>
       <c r="C17">
-        <v>2.9777999999999998</v>
+        <v>-1.5185999999999999</v>
       </c>
       <c r="D17">
-        <v>52.428376534788541</v>
+        <v>63.515338606984372</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,13 +1098,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>40.76</v>
+        <v>98.16</v>
       </c>
       <c r="C18">
-        <v>3.3469000000000002</v>
+        <v>-1.8498000000000001</v>
       </c>
       <c r="D18">
-        <v>55.118110236220481</v>
+        <v>64.784946236559122</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,13 +1112,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>184.88</v>
+        <v>119.16</v>
       </c>
       <c r="C19">
-        <v>0.2984</v>
+        <v>-1.1120000000000001</v>
       </c>
       <c r="D19">
-        <v>55.626326963906621</v>
+        <v>66.88508064516131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,13 +1126,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>59.53</v>
+        <v>118.65</v>
       </c>
       <c r="C20">
-        <v>1.9</v>
+        <v>-0.65310000000000001</v>
       </c>
       <c r="D20">
-        <v>56.439393939393973</v>
+        <v>67.198298777246123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,13 +1140,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>54.49</v>
+        <v>125.11</v>
       </c>
       <c r="C21">
-        <v>1.0197000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D21">
-        <v>56.761268781302178</v>
+        <v>68.489405331510582</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,13 +1154,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>128.01</v>
+        <v>46.82</v>
       </c>
       <c r="C22">
-        <v>1.8133999999999999</v>
+        <v>1.4518</v>
       </c>
       <c r="D22">
-        <v>59.126106194690273</v>
+        <v>69.094488188976356</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,13 +1168,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>250.11</v>
+        <v>56.3</v>
       </c>
       <c r="C23">
-        <v>0.86709999999999998</v>
+        <v>0.93220000000000003</v>
       </c>
       <c r="D23">
-        <v>59.456217512994847</v>
+        <v>71.200000000000017</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,13 +1182,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>142.37</v>
+        <v>36.25</v>
       </c>
       <c r="C24">
-        <v>-8.4199999999999997E-2</v>
+        <v>1.8258000000000001</v>
       </c>
       <c r="D24">
-        <v>65.033407572383197</v>
+        <v>71.323529411764781</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,13 +1196,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>46.66</v>
+        <v>191.48</v>
       </c>
       <c r="C25">
-        <v>-8.5699999999999998E-2</v>
+        <v>0.29330000000000001</v>
       </c>
       <c r="D25">
-        <v>67.652859960552206</v>
+        <v>72.037652270210344</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,13 +1210,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>33.83</v>
-      </c>
-      <c r="C26">
-        <v>1.1057999999999999</v>
+        <v>136.9</v>
       </c>
       <c r="D26">
-        <v>68.105515587529965</v>
+        <v>74.808324205914545</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,13 +1221,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>383.68</v>
+        <v>385.31</v>
       </c>
       <c r="C27">
-        <v>0.1749</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="D27">
-        <v>70.951957295373688</v>
+        <v>77.719665271966548</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,13 +1235,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>213.67</v>
+        <v>131.74</v>
       </c>
       <c r="C28">
-        <v>-0.30330000000000001</v>
+        <v>-0.34799999999999998</v>
       </c>
       <c r="D28">
-        <v>74.192377495462807</v>
+        <v>79.207459207459323</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,13 +1249,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>123.89</v>
+        <v>260.38</v>
       </c>
       <c r="C29">
-        <v>1.1512</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="D29">
-        <v>74.71169686985175</v>
+        <v>80.182926829268268</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,13 +1263,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>119.34</v>
+        <v>125.63</v>
       </c>
       <c r="C30">
-        <v>2.1659000000000002</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="D30">
-        <v>75.285171102661593</v>
+        <v>85.18518518518519</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,13 +1277,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>130.68</v>
+        <v>149.35</v>
       </c>
       <c r="C31">
-        <v>2.2934999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D31">
-        <v>76.690997566909971</v>
+        <v>90.134099616858222</v>
       </c>
     </row>
   </sheetData>
@@ -1258,9 +1293,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1292,25 +1329,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>149.11000000000001</v>
+        <v>58.26</v>
       </c>
       <c r="C2">
-        <v>142.37</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>427.11</v>
+        <v>840</v>
       </c>
       <c r="F2">
-        <v>-4.5202</v>
+        <v>2.9866000000000001</v>
       </c>
       <c r="G2">
-        <v>65.033407572383197</v>
+        <v>57.754010695187162</v>
       </c>
       <c r="H2" t="s">
         <v>41</v>
@@ -1318,25 +1355,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>35.46</v>
+        <v>45.98</v>
       </c>
       <c r="C3">
-        <v>33.83</v>
+        <v>43.52</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>778.08999999999992</v>
+        <v>522.24</v>
       </c>
       <c r="F3">
-        <v>-4.5967000000000002</v>
+        <v>-5.3502000000000001</v>
       </c>
       <c r="G3">
-        <v>68.105515587529965</v>
+        <v>46.37305699481869</v>
       </c>
       <c r="H3" t="s">
         <v>41</v>
@@ -1344,25 +1381,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>58.26</v>
+        <v>61.92</v>
       </c>
       <c r="C4">
-        <v>59.53</v>
+        <v>62.2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>833.42000000000007</v>
+        <v>435.4</v>
       </c>
       <c r="F4">
-        <v>2.1798999999999999</v>
+        <v>0.45219999999999999</v>
       </c>
       <c r="G4">
-        <v>56.439393939393973</v>
+        <v>51.590380139643138</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
@@ -1370,131 +1407,27 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>278.89</v>
+        <v>94.52</v>
       </c>
       <c r="C5">
-        <v>291.23</v>
+        <v>95.18</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>873.69</v>
+        <v>475.9</v>
       </c>
       <c r="F5">
-        <v>4.4246999999999996</v>
+        <v>0.69830000000000003</v>
       </c>
       <c r="G5">
-        <v>43.825785696609763</v>
+        <v>52.466627974463179</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>45.98</v>
-      </c>
-      <c r="C6">
-        <v>42.65</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>511.8</v>
-      </c>
-      <c r="F6">
-        <v>-7.2423000000000002</v>
-      </c>
-      <c r="G6">
-        <v>35.450346420323307</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>97.81</v>
-      </c>
-      <c r="C7">
-        <v>96.27</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>577.62</v>
-      </c>
-      <c r="F7">
-        <v>-1.5745</v>
-      </c>
-      <c r="G7">
-        <v>48.226270373921359</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>61.92</v>
-      </c>
-      <c r="C8">
-        <v>59.64</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>417.48</v>
-      </c>
-      <c r="F8">
-        <v>-3.6821999999999999</v>
-      </c>
-      <c r="G8">
-        <v>44.756277695716392</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>94.52</v>
-      </c>
-      <c r="C9">
-        <v>93.23</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>466.15</v>
-      </c>
-      <c r="F9">
-        <v>-1.3648</v>
-      </c>
-      <c r="G9">
-        <v>38.453038674033181</v>
-      </c>
-      <c r="H9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1507,7 +1440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1524,7 +1459,7 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>5740.5700000000024</v>
+        <v>8511.65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="B3">
-        <v>4885.3600000000006</v>
+        <v>2273.54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1475,7 @@
         <v>45</v>
       </c>
       <c r="B4">
-        <v>10625.93</v>
+        <v>10785.189999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1550,9 +1485,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1581,7 +1518,7 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -1601,7 +1538,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -1621,7 +1558,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -1661,7 +1598,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -1681,7 +1618,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -1701,7 +1638,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1721,7 +1658,7 @@
         <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -1741,7 +1678,7 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -1761,7 +1698,7 @@
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1781,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -1801,7 +1738,7 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -1821,7 +1758,7 @@
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1841,7 +1778,7 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -1861,7 +1798,7 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1881,7 +1818,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -1901,7 +1838,7 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1921,7 +1858,7 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
@@ -1941,7 +1878,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
@@ -1961,7 +1898,7 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -2001,7 +1938,7 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
@@ -2021,7 +1958,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
@@ -2041,7 +1978,7 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -2061,7 +1998,7 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
@@ -2081,7 +2018,7 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
@@ -2101,7 +2038,7 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
@@ -2121,7 +2058,7 @@
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
@@ -2141,7 +2078,7 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
@@ -2161,7 +2098,7 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
@@ -2181,7 +2118,7 @@
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
@@ -2221,7 +2158,7 @@
         <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
@@ -2241,7 +2178,7 @@
         <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2261,7 +2198,7 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
@@ -2281,7 +2218,7 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
@@ -2301,7 +2238,7 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -2321,7 +2258,7 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -2341,7 +2278,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
@@ -2361,7 +2298,7 @@
         <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
@@ -2381,7 +2318,7 @@
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
@@ -2401,7 +2338,7 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -2421,7 +2358,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -2441,7 +2378,7 @@
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>41</v>
@@ -2461,7 +2398,7 @@
         <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>41</v>
@@ -2481,7 +2418,7 @@
         <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>41</v>
@@ -2521,7 +2458,7 @@
         <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
@@ -2541,7 +2478,7 @@
         <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>68</v>
@@ -2561,7 +2498,7 @@
         <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
@@ -2571,6 +2508,66 @@
       </c>
       <c r="F51">
         <v>1022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>435.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53">
+        <v>23</v>
+      </c>
+      <c r="F53">
+        <v>809.83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>925.56</v>
       </c>
     </row>
   </sheetData>
@@ -2580,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,18 +2590,18 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>8039.66</v>
@@ -2618,7 +2615,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>8039.66</v>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>8039.66</v>
@@ -2646,7 +2643,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>6559.66</v>
@@ -2660,7 +2657,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>4979.93</v>
@@ -2674,7 +2671,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>4979.93</v>
@@ -2688,7 +2685,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>4979.93</v>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>4979.93</v>
@@ -2716,7 +2713,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>4979.93</v>
@@ -2730,7 +2727,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>3242.84</v>
@@ -2744,7 +2741,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>1734.2</v>
@@ -2758,7 +2755,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>1858.54</v>
@@ -2772,7 +2769,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>1858.54</v>
@@ -2786,7 +2783,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B15">
         <v>1858.54</v>
@@ -2800,7 +2797,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B16">
         <v>2140.56</v>
@@ -2814,7 +2811,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B17">
         <v>5590.56</v>
@@ -2828,7 +2825,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B18">
         <v>8202.52</v>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19">
         <v>8202.52</v>
@@ -2856,7 +2853,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B20">
         <v>7386.9400000000014</v>
@@ -2870,7 +2867,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>6767.2400000000016</v>
@@ -2884,7 +2881,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B22">
         <v>7733.7200000000012</v>
@@ -2898,7 +2895,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B23">
         <v>8370.18</v>
@@ -2912,7 +2909,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B24">
         <v>8370.18</v>
@@ -2926,7 +2923,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B25">
         <v>8370.18</v>
@@ -2940,7 +2937,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B26">
         <v>8370.18</v>
@@ -2954,7 +2951,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B27">
         <v>5922.63</v>
@@ -2968,7 +2965,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B28">
         <v>5922.63</v>
@@ -2982,7 +2979,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B29">
         <v>5922.63</v>
@@ -2996,7 +2993,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B30">
         <v>5922.63</v>
@@ -3010,7 +3007,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B31">
         <v>4784.01</v>
@@ -3024,7 +3021,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B32">
         <v>3877.9700000000012</v>
@@ -3038,7 +3035,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B33">
         <v>3877.9700000000012</v>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B34">
         <v>3877.9700000000012</v>
@@ -3066,7 +3063,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B35">
         <v>3877.9700000000012</v>
@@ -3080,7 +3077,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B36">
         <v>3877.9700000000012</v>
@@ -3094,7 +3091,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <v>3877.9700000000012</v>
@@ -3108,7 +3105,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B38">
         <v>3877.9700000000012</v>
@@ -3122,7 +3119,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B39">
         <v>3877.9700000000012</v>
@@ -3136,7 +3133,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B40">
         <v>5740.5700000000024</v>
@@ -3150,7 +3147,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B41">
         <v>5740.5700000000024</v>
@@ -3160,6 +3157,104 @@
       </c>
       <c r="D41">
         <v>10625.93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42">
+        <v>5740.5700000000024</v>
+      </c>
+      <c r="C42">
+        <v>4885.3600000000006</v>
+      </c>
+      <c r="D42">
+        <v>10625.93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43">
+        <v>5740.5700000000024</v>
+      </c>
+      <c r="C43">
+        <v>4885.3600000000006</v>
+      </c>
+      <c r="D43">
+        <v>10625.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44">
+        <v>6986.0300000000016</v>
+      </c>
+      <c r="C44">
+        <v>3700.32</v>
+      </c>
+      <c r="D44">
+        <v>10686.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45">
+        <v>7911.590000000002</v>
+      </c>
+      <c r="C45">
+        <v>2841.309999999999</v>
+      </c>
+      <c r="D45">
+        <v>10752.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46">
+        <v>7911.590000000002</v>
+      </c>
+      <c r="C46">
+        <v>2887.74</v>
+      </c>
+      <c r="D46">
+        <v>10799.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47">
+        <v>7911.590000000002</v>
+      </c>
+      <c r="C47">
+        <v>2877.57</v>
+      </c>
+      <c r="D47">
+        <v>10789.16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48">
+        <v>8511.65</v>
+      </c>
+      <c r="C48">
+        <v>2273.54</v>
+      </c>
+      <c r="D48">
+        <v>10785.189999999999</v>
       </c>
     </row>
   </sheetData>

--- a/__testing/portfolio.xlsx
+++ b/__testing/portfolio.xlsx
@@ -54,7 +54,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -70,6 +69,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -863,13 +930,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.97</v>
+        <v>69.83000183105469</v>
       </c>
       <c r="C31" t="n">
-        <v>2.5553</v>
+        <v>2.5705</v>
       </c>
       <c r="D31" t="n">
-        <v>60.23391812865499</v>
+        <v>85.89616557792812</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,23 +998,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.96</v>
+        <v>192.8600006103516</v>
       </c>
       <c r="C2" t="n">
-        <v>52.96</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>953.28</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="F2" t="n">
-        <v>24.80620155038761</v>
+        <v>19.1382449938766</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -958,23 +1025,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.78</v>
+        <v>244.1499938964844</v>
       </c>
       <c r="C3" t="n">
-        <v>137.78</v>
+        <v>228.4700012207031</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>964.46</v>
+        <v>228.4700012207031</v>
       </c>
       <c r="F3" t="n">
-        <v>29.24528301886784</v>
+        <v>42.22578278423129</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -985,23 +1052,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.28</v>
+        <v>62.18698501586914</v>
       </c>
       <c r="C4" t="n">
-        <v>59.28</v>
+        <v>55.34999847412109</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>948.48</v>
+        <v>55.34999847412109</v>
       </c>
       <c r="F4" t="n">
-        <v>29.85915492957741</v>
+        <v>38.01236101117715</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1012,23 +1079,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.98</v>
+        <v>50.90999984741211</v>
       </c>
       <c r="C5" t="n">
-        <v>36.98</v>
+        <v>52.90000152587891</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>998.4599999999999</v>
+        <v>52.90000152587891</v>
       </c>
       <c r="F5" t="n">
-        <v>21.7967599410898</v>
+        <v>65.1446013353175</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1039,23 +1106,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.04000000000001</v>
+        <v>247.7899932861328</v>
       </c>
       <c r="C6" t="n">
-        <v>75.04000000000001</v>
+        <v>248.1499938964844</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>975.5200000000001</v>
+        <v>248.1499938964844</v>
       </c>
       <c r="F6" t="n">
-        <v>16.82953311617815</v>
+        <v>44.12707801506755</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1070,19 +1137,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.87</v>
+        <v>126.8499984741211</v>
       </c>
       <c r="C7" t="n">
-        <v>129.87</v>
+        <v>127.4499969482422</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>909.09</v>
+        <v>127.4499969482422</v>
       </c>
       <c r="F7" t="n">
-        <v>6.539833531510226</v>
+        <v>40.74377681026888</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1093,160 +1160,25 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.51</v>
+        <v>220.3099975585938</v>
       </c>
       <c r="C8" t="n">
-        <v>234.51</v>
+        <v>226.9400024414062</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>938.04</v>
+        <v>226.9400024414062</v>
       </c>
       <c r="F8" t="n">
-        <v>28.69097429766896</v>
+        <v>37.61232944071057</v>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>45.43</v>
-      </c>
-      <c r="C9" t="n">
-        <v>45.43</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E9" t="n">
-        <v>999.46</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.66539196940727</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>NKE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>136.39</v>
-      </c>
-      <c r="C10" t="n">
-        <v>136.39</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>954.7299999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>27.44783306581064</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>WMT</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>135.47</v>
-      </c>
-      <c r="C11" t="n">
-        <v>135.47</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>948.29</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24.68220338983049</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>JNJ</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>156.22</v>
-      </c>
-      <c r="C12" t="n">
-        <v>156.22</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>937.3199999999999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>21.83523107836568</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>253.52</v>
-      </c>
-      <c r="C13" t="n">
-        <v>253.52</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>760.5600000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>20.3451407811081</v>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1290,7 +1222,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>10597</v>
       </c>
     </row>
     <row r="3">
@@ -1300,7 +1232,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11287</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4">
@@ -1310,7 +1242,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11641</v>
+        <v>11709</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4997,6 +4929,1280 @@
       </c>
       <c r="F141" t="n">
         <v>760.5600000000001</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>04/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>204.8399963378906</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>10/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>27</v>
+      </c>
+      <c r="F143" t="n">
+        <v>933.9077568054199</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>22</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1065.9580078125</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>806.5500183105469</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>18</v>
+      </c>
+      <c r="F146" t="n">
+        <v>927.3600082397461</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>12/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>13</v>
+      </c>
+      <c r="F147" t="n">
+        <v>969.7999801635742</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>15/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>220.4600067138672</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>16/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>896.8419952392578</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>918.5028381347656</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1013.740051269531</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>18/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>962.8200073242188</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>103.379997253418</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>55.67887115478516</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>192.8600006103516</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>207.6983184814453</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>147.5899963378906</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>139.5306091308594</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>128.6399993896484</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>16</v>
+      </c>
+      <c r="F160" t="n">
+        <v>908.3079223632812</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>327.3900146484375</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>244.8699951171875</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>05/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>996.280029296875</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>05/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>218.7222900390625</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>893.7818450927734</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>152.2899932861328</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>147.1300048828125</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>08/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>254.9499969482422</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>09/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>135.4499969482422</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>12/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>161.6399993896484</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>16/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>342.3099975585938</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>244.1499938964844</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>53.79000091552734</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>20/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>127.1100006103516</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>62.18698501586914</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>147.3699951171875</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>26/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>131.2599945068359</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>27/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>56.31999969482422</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>30/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>50.90999984741211</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>247.7899932861328</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>58.3400993347168</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>05/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>157.5200042724609</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>109.0199966430664</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>54.45999908447266</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>59.29000091552734</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>07/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>137.8099975585938</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>126.8499984741211</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>170.2700042724609</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>137.6699981689453</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>12/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>220.3099975585938</v>
       </c>
     </row>
   </sheetData>
@@ -5010,7 +6216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D309"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5066,10 +6272,10 @@
         <v>8196</v>
       </c>
       <c r="C3" t="n">
-        <v>1803</v>
+        <v>1825</v>
       </c>
       <c r="D3" t="n">
-        <v>9999</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="4">
@@ -5082,10 +6288,10 @@
         <v>8196</v>
       </c>
       <c r="C4" t="n">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="D4" t="n">
-        <v>9999</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="5">
@@ -5098,10 +6304,10 @@
         <v>7225</v>
       </c>
       <c r="C5" t="n">
-        <v>2774</v>
+        <v>2770</v>
       </c>
       <c r="D5" t="n">
-        <v>9999</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="6">
@@ -5114,10 +6320,10 @@
         <v>5317</v>
       </c>
       <c r="C6" t="n">
-        <v>4681</v>
+        <v>4669</v>
       </c>
       <c r="D6" t="n">
-        <v>9998</v>
+        <v>9986</v>
       </c>
     </row>
     <row r="7">
@@ -5130,10 +6336,10 @@
         <v>2429</v>
       </c>
       <c r="C7" t="n">
-        <v>7568</v>
+        <v>7566</v>
       </c>
       <c r="D7" t="n">
-        <v>9997</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="8">
@@ -5146,10 +6352,10 @@
         <v>2429</v>
       </c>
       <c r="C8" t="n">
-        <v>7568</v>
+        <v>7555</v>
       </c>
       <c r="D8" t="n">
-        <v>9997</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="9">
@@ -5162,10 +6368,10 @@
         <v>2429</v>
       </c>
       <c r="C9" t="n">
-        <v>7568</v>
+        <v>7521</v>
       </c>
       <c r="D9" t="n">
-        <v>9997</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="10">
@@ -5178,10 +6384,10 @@
         <v>2429</v>
       </c>
       <c r="C10" t="n">
-        <v>7568</v>
+        <v>7537</v>
       </c>
       <c r="D10" t="n">
-        <v>9997</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="11">
@@ -5194,10 +6400,10 @@
         <v>2429</v>
       </c>
       <c r="C11" t="n">
-        <v>7568</v>
+        <v>7554</v>
       </c>
       <c r="D11" t="n">
-        <v>9997</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="12">
@@ -5210,10 +6416,10 @@
         <v>2429</v>
       </c>
       <c r="C12" t="n">
-        <v>7568</v>
+        <v>7565</v>
       </c>
       <c r="D12" t="n">
-        <v>9997</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="13">
@@ -5226,10 +6432,10 @@
         <v>3407</v>
       </c>
       <c r="C13" t="n">
-        <v>6621</v>
+        <v>6613</v>
       </c>
       <c r="D13" t="n">
-        <v>10028</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="14">
@@ -5242,10 +6448,10 @@
         <v>3407</v>
       </c>
       <c r="C14" t="n">
-        <v>6621</v>
+        <v>6611</v>
       </c>
       <c r="D14" t="n">
-        <v>10028</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="15">
@@ -5258,10 +6464,10 @@
         <v>3407</v>
       </c>
       <c r="C15" t="n">
-        <v>6621</v>
+        <v>6611</v>
       </c>
       <c r="D15" t="n">
-        <v>10028</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="16">
@@ -5274,10 +6480,10 @@
         <v>1487</v>
       </c>
       <c r="C16" t="n">
-        <v>8540</v>
+        <v>8481</v>
       </c>
       <c r="D16" t="n">
-        <v>10027</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="17">
@@ -5290,10 +6496,10 @@
         <v>2471</v>
       </c>
       <c r="C17" t="n">
-        <v>7580</v>
+        <v>7440</v>
       </c>
       <c r="D17" t="n">
-        <v>10051</v>
+        <v>9911</v>
       </c>
     </row>
     <row r="18">
@@ -5306,10 +6512,10 @@
         <v>2471</v>
       </c>
       <c r="C18" t="n">
-        <v>7580</v>
+        <v>7423</v>
       </c>
       <c r="D18" t="n">
-        <v>10051</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="19">
@@ -5322,10 +6528,10 @@
         <v>1515</v>
       </c>
       <c r="C19" t="n">
-        <v>8535</v>
+        <v>8271</v>
       </c>
       <c r="D19" t="n">
-        <v>10050</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="20">
@@ -5338,10 +6544,10 @@
         <v>675</v>
       </c>
       <c r="C20" t="n">
-        <v>9375</v>
+        <v>8992</v>
       </c>
       <c r="D20" t="n">
-        <v>10050</v>
+        <v>9667</v>
       </c>
     </row>
     <row r="21">
@@ -5354,10 +6560,10 @@
         <v>675</v>
       </c>
       <c r="C21" t="n">
-        <v>9375</v>
+        <v>8987</v>
       </c>
       <c r="D21" t="n">
-        <v>10050</v>
+        <v>9662</v>
       </c>
     </row>
     <row r="22">
@@ -5370,10 +6576,10 @@
         <v>675</v>
       </c>
       <c r="C22" t="n">
-        <v>9375</v>
+        <v>8995</v>
       </c>
       <c r="D22" t="n">
-        <v>10050</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="23">
@@ -5386,10 +6592,10 @@
         <v>675</v>
       </c>
       <c r="C23" t="n">
-        <v>9375</v>
+        <v>8996</v>
       </c>
       <c r="D23" t="n">
-        <v>10050</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="24">
@@ -5402,10 +6608,10 @@
         <v>675</v>
       </c>
       <c r="C24" t="n">
-        <v>9375</v>
+        <v>8773</v>
       </c>
       <c r="D24" t="n">
-        <v>10050</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="25">
@@ -5418,10 +6624,10 @@
         <v>675</v>
       </c>
       <c r="C25" t="n">
-        <v>9375</v>
+        <v>8768</v>
       </c>
       <c r="D25" t="n">
-        <v>10050</v>
+        <v>9443</v>
       </c>
     </row>
     <row r="26">
@@ -5434,10 +6640,10 @@
         <v>675</v>
       </c>
       <c r="C26" t="n">
-        <v>9375</v>
+        <v>8884</v>
       </c>
       <c r="D26" t="n">
-        <v>10050</v>
+        <v>9559</v>
       </c>
     </row>
     <row r="27">
@@ -5450,10 +6656,10 @@
         <v>1657</v>
       </c>
       <c r="C27" t="n">
-        <v>8440</v>
+        <v>8061</v>
       </c>
       <c r="D27" t="n">
-        <v>10097</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="28">
@@ -5466,10 +6672,10 @@
         <v>681</v>
       </c>
       <c r="C28" t="n">
-        <v>9416</v>
+        <v>9022</v>
       </c>
       <c r="D28" t="n">
-        <v>10097</v>
+        <v>9703</v>
       </c>
     </row>
     <row r="29">
@@ -5482,10 +6688,10 @@
         <v>681</v>
       </c>
       <c r="C29" t="n">
-        <v>9416</v>
+        <v>8925</v>
       </c>
       <c r="D29" t="n">
-        <v>10097</v>
+        <v>9606</v>
       </c>
     </row>
     <row r="30">
@@ -5498,10 +6704,10 @@
         <v>681</v>
       </c>
       <c r="C30" t="n">
-        <v>9416</v>
+        <v>8936</v>
       </c>
       <c r="D30" t="n">
-        <v>10097</v>
+        <v>9617</v>
       </c>
     </row>
     <row r="31">
@@ -5514,10 +6720,10 @@
         <v>681</v>
       </c>
       <c r="C31" t="n">
-        <v>9416</v>
+        <v>8979</v>
       </c>
       <c r="D31" t="n">
-        <v>10097</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="32">
@@ -5530,10 +6736,10 @@
         <v>681</v>
       </c>
       <c r="C32" t="n">
-        <v>9416</v>
+        <v>9040</v>
       </c>
       <c r="D32" t="n">
-        <v>10097</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="33">
@@ -5546,10 +6752,10 @@
         <v>681</v>
       </c>
       <c r="C33" t="n">
-        <v>9416</v>
+        <v>8958</v>
       </c>
       <c r="D33" t="n">
-        <v>10097</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="34">
@@ -5562,10 +6768,10 @@
         <v>2543</v>
       </c>
       <c r="C34" t="n">
-        <v>7492</v>
+        <v>7068</v>
       </c>
       <c r="D34" t="n">
-        <v>10035</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="35">
@@ -5578,10 +6784,10 @@
         <v>2543</v>
       </c>
       <c r="C35" t="n">
-        <v>7492</v>
+        <v>7068</v>
       </c>
       <c r="D35" t="n">
-        <v>10035</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="36">
@@ -5594,10 +6800,10 @@
         <v>2543</v>
       </c>
       <c r="C36" t="n">
-        <v>7492</v>
+        <v>7002</v>
       </c>
       <c r="D36" t="n">
-        <v>10035</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="37">
@@ -5610,10 +6816,10 @@
         <v>2543</v>
       </c>
       <c r="C37" t="n">
-        <v>7492</v>
+        <v>7019</v>
       </c>
       <c r="D37" t="n">
-        <v>10035</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="38">
@@ -5626,10 +6832,10 @@
         <v>775</v>
       </c>
       <c r="C38" t="n">
-        <v>9258</v>
+        <v>8784</v>
       </c>
       <c r="D38" t="n">
-        <v>10033</v>
+        <v>9559</v>
       </c>
     </row>
     <row r="39">
@@ -5642,10 +6848,10 @@
         <v>775</v>
       </c>
       <c r="C39" t="n">
-        <v>9258</v>
+        <v>8739</v>
       </c>
       <c r="D39" t="n">
-        <v>10033</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="40">
@@ -5658,10 +6864,10 @@
         <v>775</v>
       </c>
       <c r="C40" t="n">
-        <v>9258</v>
+        <v>8448</v>
       </c>
       <c r="D40" t="n">
-        <v>10033</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="41">
@@ -5674,10 +6880,10 @@
         <v>775</v>
       </c>
       <c r="C41" t="n">
-        <v>9258</v>
+        <v>8205</v>
       </c>
       <c r="D41" t="n">
-        <v>10033</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="42">
@@ -5690,10 +6896,10 @@
         <v>775</v>
       </c>
       <c r="C42" t="n">
-        <v>9258</v>
+        <v>8153</v>
       </c>
       <c r="D42" t="n">
-        <v>10033</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="43">
@@ -5706,10 +6912,10 @@
         <v>775</v>
       </c>
       <c r="C43" t="n">
-        <v>9258</v>
+        <v>7867</v>
       </c>
       <c r="D43" t="n">
-        <v>10033</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="44">
@@ -5722,10 +6928,10 @@
         <v>22</v>
       </c>
       <c r="C44" t="n">
-        <v>10011</v>
+        <v>8576</v>
       </c>
       <c r="D44" t="n">
-        <v>10033</v>
+        <v>8598</v>
       </c>
     </row>
     <row r="45">
@@ -5738,10 +6944,10 @@
         <v>22</v>
       </c>
       <c r="C45" t="n">
-        <v>10011</v>
+        <v>8935</v>
       </c>
       <c r="D45" t="n">
-        <v>10033</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="46">
@@ -5754,10 +6960,10 @@
         <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>10011</v>
+        <v>8643</v>
       </c>
       <c r="D46" t="n">
-        <v>10033</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="47">
@@ -5770,10 +6976,10 @@
         <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>10011</v>
+        <v>9053</v>
       </c>
       <c r="D47" t="n">
-        <v>10033</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="48">
@@ -5786,10 +6992,10 @@
         <v>22</v>
       </c>
       <c r="C48" t="n">
-        <v>10011</v>
+        <v>8800</v>
       </c>
       <c r="D48" t="n">
-        <v>10033</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="49">
@@ -5802,10 +7008,10 @@
         <v>22</v>
       </c>
       <c r="C49" t="n">
-        <v>10011</v>
+        <v>8762</v>
       </c>
       <c r="D49" t="n">
-        <v>10033</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="50">
@@ -5818,10 +7024,10 @@
         <v>22</v>
       </c>
       <c r="C50" t="n">
-        <v>10011</v>
+        <v>8042</v>
       </c>
       <c r="D50" t="n">
-        <v>10033</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="51">
@@ -5834,10 +7040,10 @@
         <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>10011</v>
+        <v>8347</v>
       </c>
       <c r="D51" t="n">
-        <v>10033</v>
+        <v>8369</v>
       </c>
     </row>
     <row r="52">
@@ -5850,10 +7056,10 @@
         <v>22</v>
       </c>
       <c r="C52" t="n">
-        <v>10011</v>
+        <v>7899</v>
       </c>
       <c r="D52" t="n">
-        <v>10033</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="53">
@@ -5866,10 +7072,10 @@
         <v>22</v>
       </c>
       <c r="C53" t="n">
-        <v>10011</v>
+        <v>7147</v>
       </c>
       <c r="D53" t="n">
-        <v>10033</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="54">
@@ -5882,10 +7088,10 @@
         <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>10011</v>
+        <v>7765</v>
       </c>
       <c r="D54" t="n">
-        <v>10033</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="55">
@@ -5898,10 +7104,10 @@
         <v>22</v>
       </c>
       <c r="C55" t="n">
-        <v>10011</v>
+        <v>7076</v>
       </c>
       <c r="D55" t="n">
-        <v>10033</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="56">
@@ -5914,10 +7120,10 @@
         <v>22</v>
       </c>
       <c r="C56" t="n">
-        <v>10011</v>
+        <v>7556</v>
       </c>
       <c r="D56" t="n">
-        <v>10033</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="57">
@@ -5930,10 +7136,10 @@
         <v>22</v>
       </c>
       <c r="C57" t="n">
-        <v>10011</v>
+        <v>7349</v>
       </c>
       <c r="D57" t="n">
-        <v>10033</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="58">
@@ -5946,10 +7152,10 @@
         <v>22</v>
       </c>
       <c r="C58" t="n">
-        <v>10011</v>
+        <v>7325</v>
       </c>
       <c r="D58" t="n">
-        <v>10033</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="59">
@@ -5962,10 +7168,10 @@
         <v>22</v>
       </c>
       <c r="C59" t="n">
-        <v>10011</v>
+        <v>6932</v>
       </c>
       <c r="D59" t="n">
-        <v>10033</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="60">
@@ -5978,10 +7184,10 @@
         <v>22</v>
       </c>
       <c r="C60" t="n">
-        <v>10011</v>
+        <v>6622</v>
       </c>
       <c r="D60" t="n">
-        <v>10033</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="61">
@@ -5994,10 +7200,10 @@
         <v>22</v>
       </c>
       <c r="C61" t="n">
-        <v>10011</v>
+        <v>7208</v>
       </c>
       <c r="D61" t="n">
-        <v>10033</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="62">
@@ -6010,10 +7216,10 @@
         <v>22</v>
       </c>
       <c r="C62" t="n">
-        <v>10011</v>
+        <v>7282</v>
       </c>
       <c r="D62" t="n">
-        <v>10033</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="63">
@@ -6026,10 +7232,10 @@
         <v>22</v>
       </c>
       <c r="C63" t="n">
-        <v>10011</v>
+        <v>7708</v>
       </c>
       <c r="D63" t="n">
-        <v>10033</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="64">
@@ -6042,10 +7248,10 @@
         <v>22</v>
       </c>
       <c r="C64" t="n">
-        <v>10011</v>
+        <v>7400</v>
       </c>
       <c r="D64" t="n">
-        <v>10033</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="65">
@@ -6058,10 +7264,10 @@
         <v>22</v>
       </c>
       <c r="C65" t="n">
-        <v>10011</v>
+        <v>7704</v>
       </c>
       <c r="D65" t="n">
-        <v>10033</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="66">
@@ -6074,10 +7280,10 @@
         <v>22</v>
       </c>
       <c r="C66" t="n">
-        <v>10011</v>
+        <v>7699</v>
       </c>
       <c r="D66" t="n">
-        <v>10033</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="67">
@@ -6090,10 +7296,10 @@
         <v>22</v>
       </c>
       <c r="C67" t="n">
-        <v>10011</v>
+        <v>7404</v>
       </c>
       <c r="D67" t="n">
-        <v>10033</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="68">
@@ -6106,10 +7312,10 @@
         <v>22</v>
       </c>
       <c r="C68" t="n">
-        <v>10011</v>
+        <v>7605</v>
       </c>
       <c r="D68" t="n">
-        <v>10033</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="69">
@@ -6122,10 +7328,10 @@
         <v>22</v>
       </c>
       <c r="C69" t="n">
-        <v>10011</v>
+        <v>7515</v>
       </c>
       <c r="D69" t="n">
-        <v>10033</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="70">
@@ -6138,10 +7344,10 @@
         <v>22</v>
       </c>
       <c r="C70" t="n">
-        <v>10011</v>
+        <v>7922</v>
       </c>
       <c r="D70" t="n">
-        <v>10033</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="71">
@@ -6154,10 +7360,10 @@
         <v>22</v>
       </c>
       <c r="C71" t="n">
-        <v>10011</v>
+        <v>7982</v>
       </c>
       <c r="D71" t="n">
-        <v>10033</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="72">
@@ -6170,10 +7376,10 @@
         <v>22</v>
       </c>
       <c r="C72" t="n">
-        <v>10011</v>
+        <v>8323</v>
       </c>
       <c r="D72" t="n">
-        <v>10033</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="73">
@@ -6186,10 +7392,10 @@
         <v>22</v>
       </c>
       <c r="C73" t="n">
-        <v>10011</v>
+        <v>8395</v>
       </c>
       <c r="D73" t="n">
-        <v>10033</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="74">
@@ -6202,10 +7408,10 @@
         <v>22</v>
       </c>
       <c r="C74" t="n">
-        <v>10011</v>
+        <v>8395</v>
       </c>
       <c r="D74" t="n">
-        <v>10033</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="75">
@@ -6218,10 +7424,10 @@
         <v>22</v>
       </c>
       <c r="C75" t="n">
-        <v>10011</v>
+        <v>8222</v>
       </c>
       <c r="D75" t="n">
-        <v>10033</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="76">
@@ -6234,10 +7440,10 @@
         <v>22</v>
       </c>
       <c r="C76" t="n">
-        <v>10011</v>
+        <v>8420</v>
       </c>
       <c r="D76" t="n">
-        <v>10033</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="77">
@@ -6250,10 +7456,10 @@
         <v>884</v>
       </c>
       <c r="C77" t="n">
-        <v>9150</v>
+        <v>7368</v>
       </c>
       <c r="D77" t="n">
-        <v>10034</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="78">
@@ -6266,10 +7472,10 @@
         <v>1768</v>
       </c>
       <c r="C78" t="n">
-        <v>8397</v>
+        <v>6503</v>
       </c>
       <c r="D78" t="n">
-        <v>10165</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="79">
@@ -6282,10 +7488,10 @@
         <v>1768</v>
       </c>
       <c r="C79" t="n">
-        <v>8397</v>
+        <v>6738</v>
       </c>
       <c r="D79" t="n">
-        <v>10165</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="80">
@@ -6298,10 +7504,10 @@
         <v>1768</v>
       </c>
       <c r="C80" t="n">
-        <v>8397</v>
+        <v>6556</v>
       </c>
       <c r="D80" t="n">
-        <v>10165</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="81">
@@ -6314,10 +7520,10 @@
         <v>1768</v>
       </c>
       <c r="C81" t="n">
-        <v>8397</v>
+        <v>6396</v>
       </c>
       <c r="D81" t="n">
-        <v>10165</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="82">
@@ -6330,10 +7536,10 @@
         <v>1768</v>
       </c>
       <c r="C82" t="n">
-        <v>8397</v>
+        <v>6502</v>
       </c>
       <c r="D82" t="n">
-        <v>10165</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="83">
@@ -6346,10 +7552,10 @@
         <v>1768</v>
       </c>
       <c r="C83" t="n">
-        <v>8397</v>
+        <v>6575</v>
       </c>
       <c r="D83" t="n">
-        <v>10165</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="84">
@@ -6362,10 +7568,10 @@
         <v>782</v>
       </c>
       <c r="C84" t="n">
-        <v>9383</v>
+        <v>7632</v>
       </c>
       <c r="D84" t="n">
-        <v>10165</v>
+        <v>8414</v>
       </c>
     </row>
     <row r="85">
@@ -6378,10 +7584,10 @@
         <v>1759</v>
       </c>
       <c r="C85" t="n">
-        <v>8407</v>
+        <v>6864</v>
       </c>
       <c r="D85" t="n">
-        <v>10166</v>
+        <v>8623</v>
       </c>
     </row>
     <row r="86">
@@ -6394,10 +7600,10 @@
         <v>1759</v>
       </c>
       <c r="C86" t="n">
-        <v>8407</v>
+        <v>6952</v>
       </c>
       <c r="D86" t="n">
-        <v>10166</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="87">
@@ -6410,10 +7616,10 @@
         <v>2898</v>
       </c>
       <c r="C87" t="n">
-        <v>7421</v>
+        <v>6055</v>
       </c>
       <c r="D87" t="n">
-        <v>10319</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="88">
@@ -6426,10 +7632,10 @@
         <v>1937</v>
       </c>
       <c r="C88" t="n">
-        <v>8382</v>
+        <v>6838</v>
       </c>
       <c r="D88" t="n">
-        <v>10319</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="89">
@@ -6442,10 +7648,10 @@
         <v>78</v>
       </c>
       <c r="C89" t="n">
-        <v>10241</v>
+        <v>8466</v>
       </c>
       <c r="D89" t="n">
-        <v>10319</v>
+        <v>8544</v>
       </c>
     </row>
     <row r="90">
@@ -6458,10 +7664,10 @@
         <v>78</v>
       </c>
       <c r="C90" t="n">
-        <v>10241</v>
+        <v>8446</v>
       </c>
       <c r="D90" t="n">
-        <v>10319</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="91">
@@ -6474,10 +7680,10 @@
         <v>78</v>
       </c>
       <c r="C91" t="n">
-        <v>10241</v>
+        <v>8465</v>
       </c>
       <c r="D91" t="n">
-        <v>10319</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="92">
@@ -6490,10 +7696,10 @@
         <v>78</v>
       </c>
       <c r="C92" t="n">
-        <v>10241</v>
+        <v>8312</v>
       </c>
       <c r="D92" t="n">
-        <v>10319</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="93">
@@ -6506,10 +7712,10 @@
         <v>78</v>
       </c>
       <c r="C93" t="n">
-        <v>10241</v>
+        <v>8362</v>
       </c>
       <c r="D93" t="n">
-        <v>10319</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="94">
@@ -6522,10 +7728,10 @@
         <v>78</v>
       </c>
       <c r="C94" t="n">
-        <v>10241</v>
+        <v>8578</v>
       </c>
       <c r="D94" t="n">
-        <v>10319</v>
+        <v>8656</v>
       </c>
     </row>
     <row r="95">
@@ -6538,10 +7744,10 @@
         <v>78</v>
       </c>
       <c r="C95" t="n">
-        <v>10241</v>
+        <v>8509</v>
       </c>
       <c r="D95" t="n">
-        <v>10319</v>
+        <v>8587</v>
       </c>
     </row>
     <row r="96">
@@ -6554,10 +7760,10 @@
         <v>78</v>
       </c>
       <c r="C96" t="n">
-        <v>10241</v>
+        <v>8359</v>
       </c>
       <c r="D96" t="n">
-        <v>10319</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="97">
@@ -6570,10 +7776,10 @@
         <v>78</v>
       </c>
       <c r="C97" t="n">
-        <v>10241</v>
+        <v>8163</v>
       </c>
       <c r="D97" t="n">
-        <v>10319</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="98">
@@ -6586,10 +7792,10 @@
         <v>78</v>
       </c>
       <c r="C98" t="n">
-        <v>10241</v>
+        <v>8262</v>
       </c>
       <c r="D98" t="n">
-        <v>10319</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="99">
@@ -6602,10 +7808,10 @@
         <v>95</v>
       </c>
       <c r="C99" t="n">
-        <v>10262</v>
+        <v>8290</v>
       </c>
       <c r="D99" t="n">
-        <v>10357</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="100">
@@ -6618,10 +7824,10 @@
         <v>95</v>
       </c>
       <c r="C100" t="n">
-        <v>10262</v>
+        <v>8786</v>
       </c>
       <c r="D100" t="n">
-        <v>10357</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="101">
@@ -6634,10 +7840,10 @@
         <v>95</v>
       </c>
       <c r="C101" t="n">
-        <v>10262</v>
+        <v>8605</v>
       </c>
       <c r="D101" t="n">
-        <v>10357</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="102">
@@ -6650,10 +7856,10 @@
         <v>95</v>
       </c>
       <c r="C102" t="n">
-        <v>10262</v>
+        <v>8741</v>
       </c>
       <c r="D102" t="n">
-        <v>10357</v>
+        <v>8836</v>
       </c>
     </row>
     <row r="103">
@@ -6666,10 +7872,10 @@
         <v>95</v>
       </c>
       <c r="C103" t="n">
-        <v>10262</v>
+        <v>8736</v>
       </c>
       <c r="D103" t="n">
-        <v>10357</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="104">
@@ -6682,10 +7888,10 @@
         <v>95</v>
       </c>
       <c r="C104" t="n">
-        <v>10262</v>
+        <v>8745</v>
       </c>
       <c r="D104" t="n">
-        <v>10357</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="105">
@@ -6698,10 +7904,10 @@
         <v>95</v>
       </c>
       <c r="C105" t="n">
-        <v>10262</v>
+        <v>8745</v>
       </c>
       <c r="D105" t="n">
-        <v>10357</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="106">
@@ -6714,10 +7920,10 @@
         <v>1294</v>
       </c>
       <c r="C106" t="n">
-        <v>9280</v>
+        <v>7923</v>
       </c>
       <c r="D106" t="n">
-        <v>10574</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="107">
@@ -6730,10 +7936,10 @@
         <v>3160</v>
       </c>
       <c r="C107" t="n">
-        <v>7434</v>
+        <v>6267</v>
       </c>
       <c r="D107" t="n">
-        <v>10594</v>
+        <v>9427</v>
       </c>
     </row>
     <row r="108">
@@ -6746,10 +7952,10 @@
         <v>3160</v>
       </c>
       <c r="C108" t="n">
-        <v>7434</v>
+        <v>6207</v>
       </c>
       <c r="D108" t="n">
-        <v>10594</v>
+        <v>9367</v>
       </c>
     </row>
     <row r="109">
@@ -6762,10 +7968,10 @@
         <v>3160</v>
       </c>
       <c r="C109" t="n">
-        <v>7434</v>
+        <v>6245</v>
       </c>
       <c r="D109" t="n">
-        <v>10594</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="110">
@@ -6778,10 +7984,10 @@
         <v>2181</v>
       </c>
       <c r="C110" t="n">
-        <v>8412</v>
+        <v>7248</v>
       </c>
       <c r="D110" t="n">
-        <v>10593</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="111">
@@ -6794,10 +8000,10 @@
         <v>1197</v>
       </c>
       <c r="C111" t="n">
-        <v>9396</v>
+        <v>8358</v>
       </c>
       <c r="D111" t="n">
-        <v>10593</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="112">
@@ -6810,10 +8016,10 @@
         <v>2128</v>
       </c>
       <c r="C112" t="n">
-        <v>8478</v>
+        <v>7554</v>
       </c>
       <c r="D112" t="n">
-        <v>10606</v>
+        <v>9682</v>
       </c>
     </row>
     <row r="113">
@@ -6826,10 +8032,10 @@
         <v>3013</v>
       </c>
       <c r="C113" t="n">
-        <v>7523</v>
+        <v>6705</v>
       </c>
       <c r="D113" t="n">
-        <v>10536</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="114">
@@ -6842,10 +8048,10 @@
         <v>3013</v>
       </c>
       <c r="C114" t="n">
-        <v>7523</v>
+        <v>6842</v>
       </c>
       <c r="D114" t="n">
-        <v>10536</v>
+        <v>9855</v>
       </c>
     </row>
     <row r="115">
@@ -6858,10 +8064,10 @@
         <v>3013</v>
       </c>
       <c r="C115" t="n">
-        <v>7523</v>
+        <v>6966</v>
       </c>
       <c r="D115" t="n">
-        <v>10536</v>
+        <v>9979</v>
       </c>
     </row>
     <row r="116">
@@ -6874,10 +8080,10 @@
         <v>3013</v>
       </c>
       <c r="C116" t="n">
-        <v>7523</v>
+        <v>6851</v>
       </c>
       <c r="D116" t="n">
-        <v>10536</v>
+        <v>9864</v>
       </c>
     </row>
     <row r="117">
@@ -6890,10 +8096,10 @@
         <v>3013</v>
       </c>
       <c r="C117" t="n">
-        <v>7523</v>
+        <v>6736</v>
       </c>
       <c r="D117" t="n">
-        <v>10536</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="118">
@@ -6906,10 +8112,10 @@
         <v>3013</v>
       </c>
       <c r="C118" t="n">
-        <v>7523</v>
+        <v>6283</v>
       </c>
       <c r="D118" t="n">
-        <v>10536</v>
+        <v>9296</v>
       </c>
     </row>
     <row r="119">
@@ -6922,10 +8128,10 @@
         <v>3013</v>
       </c>
       <c r="C119" t="n">
-        <v>7523</v>
+        <v>6365</v>
       </c>
       <c r="D119" t="n">
-        <v>10536</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="120">
@@ -6938,10 +8144,10 @@
         <v>3013</v>
       </c>
       <c r="C120" t="n">
-        <v>7523</v>
+        <v>6371</v>
       </c>
       <c r="D120" t="n">
-        <v>10536</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="121">
@@ -6954,10 +8160,10 @@
         <v>3013</v>
       </c>
       <c r="C121" t="n">
-        <v>7523</v>
+        <v>6467</v>
       </c>
       <c r="D121" t="n">
-        <v>10536</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="122">
@@ -6970,10 +8176,10 @@
         <v>3013</v>
       </c>
       <c r="C122" t="n">
-        <v>7523</v>
+        <v>6408</v>
       </c>
       <c r="D122" t="n">
-        <v>10536</v>
+        <v>9421</v>
       </c>
     </row>
     <row r="123">
@@ -6986,10 +8192,10 @@
         <v>3013</v>
       </c>
       <c r="C123" t="n">
-        <v>7523</v>
+        <v>6404</v>
       </c>
       <c r="D123" t="n">
-        <v>10536</v>
+        <v>9417</v>
       </c>
     </row>
     <row r="124">
@@ -7002,10 +8208,10 @@
         <v>198</v>
       </c>
       <c r="C124" t="n">
-        <v>10336</v>
+        <v>9250</v>
       </c>
       <c r="D124" t="n">
-        <v>10534</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="125">
@@ -7018,10 +8224,10 @@
         <v>198</v>
       </c>
       <c r="C125" t="n">
-        <v>10336</v>
+        <v>9241</v>
       </c>
       <c r="D125" t="n">
-        <v>10534</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="126">
@@ -7034,10 +8240,10 @@
         <v>198</v>
       </c>
       <c r="C126" t="n">
-        <v>10336</v>
+        <v>9253</v>
       </c>
       <c r="D126" t="n">
-        <v>10534</v>
+        <v>9451</v>
       </c>
     </row>
     <row r="127">
@@ -7050,10 +8256,10 @@
         <v>198</v>
       </c>
       <c r="C127" t="n">
-        <v>10336</v>
+        <v>8974</v>
       </c>
       <c r="D127" t="n">
-        <v>10534</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="128">
@@ -7066,10 +8272,10 @@
         <v>80</v>
       </c>
       <c r="C128" t="n">
-        <v>10468</v>
+        <v>9203</v>
       </c>
       <c r="D128" t="n">
-        <v>10548</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="129">
@@ -7082,10 +8288,10 @@
         <v>80</v>
       </c>
       <c r="C129" t="n">
-        <v>10468</v>
+        <v>9013</v>
       </c>
       <c r="D129" t="n">
-        <v>10548</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="130">
@@ -7098,10 +8304,10 @@
         <v>80</v>
       </c>
       <c r="C130" t="n">
-        <v>10468</v>
+        <v>9174</v>
       </c>
       <c r="D130" t="n">
-        <v>10548</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="131">
@@ -7114,10 +8320,10 @@
         <v>80</v>
       </c>
       <c r="C131" t="n">
-        <v>10468</v>
+        <v>9243</v>
       </c>
       <c r="D131" t="n">
-        <v>10548</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="132">
@@ -7130,10 +8336,10 @@
         <v>80</v>
       </c>
       <c r="C132" t="n">
-        <v>10468</v>
+        <v>9211</v>
       </c>
       <c r="D132" t="n">
-        <v>10548</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="133">
@@ -7146,10 +8352,10 @@
         <v>80</v>
       </c>
       <c r="C133" t="n">
-        <v>10468</v>
+        <v>9290</v>
       </c>
       <c r="D133" t="n">
-        <v>10548</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="134">
@@ -7162,10 +8368,10 @@
         <v>80</v>
       </c>
       <c r="C134" t="n">
-        <v>10468</v>
+        <v>9290</v>
       </c>
       <c r="D134" t="n">
-        <v>10548</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="135">
@@ -7178,10 +8384,10 @@
         <v>80</v>
       </c>
       <c r="C135" t="n">
-        <v>10468</v>
+        <v>9395</v>
       </c>
       <c r="D135" t="n">
-        <v>10548</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="136">
@@ -7194,10 +8400,10 @@
         <v>80</v>
       </c>
       <c r="C136" t="n">
-        <v>10468</v>
+        <v>9316</v>
       </c>
       <c r="D136" t="n">
-        <v>10548</v>
+        <v>9396</v>
       </c>
     </row>
     <row r="137">
@@ -7210,10 +8416,10 @@
         <v>80</v>
       </c>
       <c r="C137" t="n">
-        <v>10468</v>
+        <v>9292</v>
       </c>
       <c r="D137" t="n">
-        <v>10548</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="138">
@@ -7226,10 +8432,10 @@
         <v>1094</v>
       </c>
       <c r="C138" t="n">
-        <v>9484</v>
+        <v>8129</v>
       </c>
       <c r="D138" t="n">
-        <v>10578</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="139">
@@ -7242,10 +8448,10 @@
         <v>1094</v>
       </c>
       <c r="C139" t="n">
-        <v>9484</v>
+        <v>8303</v>
       </c>
       <c r="D139" t="n">
-        <v>10578</v>
+        <v>9397</v>
       </c>
     </row>
     <row r="140">
@@ -7258,10 +8464,10 @@
         <v>2065</v>
       </c>
       <c r="C140" t="n">
-        <v>8505</v>
+        <v>7364</v>
       </c>
       <c r="D140" t="n">
-        <v>10570</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="141">
@@ -7274,10 +8480,10 @@
         <v>2065</v>
       </c>
       <c r="C141" t="n">
-        <v>8505</v>
+        <v>7491</v>
       </c>
       <c r="D141" t="n">
-        <v>10570</v>
+        <v>9556</v>
       </c>
     </row>
     <row r="142">
@@ -7290,10 +8496,10 @@
         <v>2065</v>
       </c>
       <c r="C142" t="n">
-        <v>8505</v>
+        <v>7565</v>
       </c>
       <c r="D142" t="n">
-        <v>10570</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="143">
@@ -7306,10 +8512,10 @@
         <v>3048</v>
       </c>
       <c r="C143" t="n">
-        <v>7552</v>
+        <v>6612</v>
       </c>
       <c r="D143" t="n">
-        <v>10600</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="144">
@@ -7322,10 +8528,10 @@
         <v>4095</v>
       </c>
       <c r="C144" t="n">
-        <v>6554</v>
+        <v>5573</v>
       </c>
       <c r="D144" t="n">
-        <v>10649</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="145">
@@ -7338,10 +8544,10 @@
         <v>4095</v>
       </c>
       <c r="C145" t="n">
-        <v>6554</v>
+        <v>5506</v>
       </c>
       <c r="D145" t="n">
-        <v>10649</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="146">
@@ -7354,10 +8560,10 @@
         <v>5106</v>
       </c>
       <c r="C146" t="n">
-        <v>5560</v>
+        <v>4540</v>
       </c>
       <c r="D146" t="n">
-        <v>10666</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="147">
@@ -7370,10 +8576,10 @@
         <v>5106</v>
       </c>
       <c r="C147" t="n">
-        <v>5560</v>
+        <v>4559</v>
       </c>
       <c r="D147" t="n">
-        <v>10666</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="148">
@@ -7386,10 +8592,10 @@
         <v>5106</v>
       </c>
       <c r="C148" t="n">
-        <v>5560</v>
+        <v>4515</v>
       </c>
       <c r="D148" t="n">
-        <v>10666</v>
+        <v>9621</v>
       </c>
     </row>
     <row r="149">
@@ -7402,10 +8608,10 @@
         <v>4114</v>
       </c>
       <c r="C149" t="n">
-        <v>6552</v>
+        <v>5491</v>
       </c>
       <c r="D149" t="n">
-        <v>10666</v>
+        <v>9605</v>
       </c>
     </row>
     <row r="150">
@@ -7418,10 +8624,10 @@
         <v>4114</v>
       </c>
       <c r="C150" t="n">
-        <v>6552</v>
+        <v>5524</v>
       </c>
       <c r="D150" t="n">
-        <v>10666</v>
+        <v>9638</v>
       </c>
     </row>
     <row r="151">
@@ -7434,10 +8640,10 @@
         <v>3121</v>
       </c>
       <c r="C151" t="n">
-        <v>7545</v>
+        <v>6459</v>
       </c>
       <c r="D151" t="n">
-        <v>10666</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="152">
@@ -7450,10 +8656,10 @@
         <v>1134</v>
       </c>
       <c r="C152" t="n">
-        <v>9530</v>
+        <v>8456</v>
       </c>
       <c r="D152" t="n">
-        <v>10664</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="153">
@@ -7466,10 +8672,10 @@
         <v>270</v>
       </c>
       <c r="C153" t="n">
-        <v>10393</v>
+        <v>9147</v>
       </c>
       <c r="D153" t="n">
-        <v>10663</v>
+        <v>9417</v>
       </c>
     </row>
     <row r="154">
@@ -7482,10 +8688,10 @@
         <v>270</v>
       </c>
       <c r="C154" t="n">
-        <v>10393</v>
+        <v>9096</v>
       </c>
       <c r="D154" t="n">
-        <v>10663</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="155">
@@ -7498,10 +8704,10 @@
         <v>270</v>
       </c>
       <c r="C155" t="n">
-        <v>10393</v>
+        <v>9175</v>
       </c>
       <c r="D155" t="n">
-        <v>10663</v>
+        <v>9445</v>
       </c>
     </row>
     <row r="156">
@@ -7514,10 +8720,10 @@
         <v>270</v>
       </c>
       <c r="C156" t="n">
-        <v>10393</v>
+        <v>9258</v>
       </c>
       <c r="D156" t="n">
-        <v>10663</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="157">
@@ -7530,10 +8736,10 @@
         <v>270</v>
       </c>
       <c r="C157" t="n">
-        <v>10393</v>
+        <v>9470</v>
       </c>
       <c r="D157" t="n">
-        <v>10663</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="158">
@@ -7546,10 +8752,10 @@
         <v>270</v>
       </c>
       <c r="C158" t="n">
-        <v>10393</v>
+        <v>9464</v>
       </c>
       <c r="D158" t="n">
-        <v>10663</v>
+        <v>9734</v>
       </c>
     </row>
     <row r="159">
@@ -7562,10 +8768,10 @@
         <v>270</v>
       </c>
       <c r="C159" t="n">
-        <v>10393</v>
+        <v>9513</v>
       </c>
       <c r="D159" t="n">
-        <v>10663</v>
+        <v>9783</v>
       </c>
     </row>
     <row r="160">
@@ -7578,10 +8784,10 @@
         <v>270</v>
       </c>
       <c r="C160" t="n">
-        <v>10393</v>
+        <v>9734</v>
       </c>
       <c r="D160" t="n">
-        <v>10663</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="161">
@@ -7594,10 +8800,10 @@
         <v>325</v>
       </c>
       <c r="C161" t="n">
-        <v>10384</v>
+        <v>9667</v>
       </c>
       <c r="D161" t="n">
-        <v>10709</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="162">
@@ -7610,10 +8816,10 @@
         <v>1395</v>
       </c>
       <c r="C162" t="n">
-        <v>9395</v>
+        <v>8645</v>
       </c>
       <c r="D162" t="n">
-        <v>10790</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="163">
@@ -7626,10 +8832,10 @@
         <v>1395</v>
       </c>
       <c r="C163" t="n">
-        <v>9395</v>
+        <v>8599</v>
       </c>
       <c r="D163" t="n">
-        <v>10790</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="164">
@@ -7642,10 +8848,10 @@
         <v>1502</v>
       </c>
       <c r="C164" t="n">
-        <v>9359</v>
+        <v>8541</v>
       </c>
       <c r="D164" t="n">
-        <v>10861</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="165">
@@ -7658,10 +8864,10 @@
         <v>1502</v>
       </c>
       <c r="C165" t="n">
-        <v>9359</v>
+        <v>8516</v>
       </c>
       <c r="D165" t="n">
-        <v>10861</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="166">
@@ -7674,10 +8880,10 @@
         <v>1502</v>
       </c>
       <c r="C166" t="n">
-        <v>9359</v>
+        <v>8510</v>
       </c>
       <c r="D166" t="n">
-        <v>10861</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="167">
@@ -7690,10 +8896,10 @@
         <v>2423</v>
       </c>
       <c r="C167" t="n">
-        <v>8415</v>
+        <v>7558</v>
       </c>
       <c r="D167" t="n">
-        <v>10838</v>
+        <v>9981</v>
       </c>
     </row>
     <row r="168">
@@ -7706,10 +8912,10 @@
         <v>2423</v>
       </c>
       <c r="C168" t="n">
-        <v>8415</v>
+        <v>7562</v>
       </c>
       <c r="D168" t="n">
-        <v>10838</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="169">
@@ -7722,10 +8928,10 @@
         <v>1430</v>
       </c>
       <c r="C169" t="n">
-        <v>9408</v>
+        <v>8554</v>
       </c>
       <c r="D169" t="n">
-        <v>10838</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="170">
@@ -7738,10 +8944,10 @@
         <v>2330</v>
       </c>
       <c r="C170" t="n">
-        <v>8544</v>
+        <v>7777</v>
       </c>
       <c r="D170" t="n">
-        <v>10874</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="171">
@@ -7754,10 +8960,10 @@
         <v>1367</v>
       </c>
       <c r="C171" t="n">
-        <v>9506</v>
+        <v>8693</v>
       </c>
       <c r="D171" t="n">
-        <v>10873</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="172">
@@ -7770,10 +8976,10 @@
         <v>378</v>
       </c>
       <c r="C172" t="n">
-        <v>10495</v>
+        <v>9665</v>
       </c>
       <c r="D172" t="n">
-        <v>10873</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="173">
@@ -7786,10 +8992,10 @@
         <v>378</v>
       </c>
       <c r="C173" t="n">
-        <v>10495</v>
+        <v>9708</v>
       </c>
       <c r="D173" t="n">
-        <v>10873</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="174">
@@ -7802,10 +9008,10 @@
         <v>1373</v>
       </c>
       <c r="C174" t="n">
-        <v>9503</v>
+        <v>8785</v>
       </c>
       <c r="D174" t="n">
-        <v>10876</v>
+        <v>10158</v>
       </c>
     </row>
     <row r="175">
@@ -7818,10 +9024,10 @@
         <v>1373</v>
       </c>
       <c r="C175" t="n">
-        <v>9503</v>
+        <v>8667</v>
       </c>
       <c r="D175" t="n">
-        <v>10876</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="176">
@@ -7834,10 +9040,10 @@
         <v>1373</v>
       </c>
       <c r="C176" t="n">
-        <v>9503</v>
+        <v>8642</v>
       </c>
       <c r="D176" t="n">
-        <v>10876</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="177">
@@ -7850,10 +9056,10 @@
         <v>3167</v>
       </c>
       <c r="C177" t="n">
-        <v>7693</v>
+        <v>6987</v>
       </c>
       <c r="D177" t="n">
-        <v>10860</v>
+        <v>10154</v>
       </c>
     </row>
     <row r="178">
@@ -7866,10 +9072,10 @@
         <v>3167</v>
       </c>
       <c r="C178" t="n">
-        <v>7693</v>
+        <v>6870</v>
       </c>
       <c r="D178" t="n">
-        <v>10860</v>
+        <v>10037</v>
       </c>
     </row>
     <row r="179">
@@ -7882,10 +9088,10 @@
         <v>3167</v>
       </c>
       <c r="C179" t="n">
-        <v>7693</v>
+        <v>6866</v>
       </c>
       <c r="D179" t="n">
-        <v>10860</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="180">
@@ -7898,10 +9104,10 @@
         <v>3167</v>
       </c>
       <c r="C180" t="n">
-        <v>7693</v>
+        <v>6866</v>
       </c>
       <c r="D180" t="n">
-        <v>10860</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="181">
@@ -7914,10 +9120,10 @@
         <v>1396</v>
       </c>
       <c r="C181" t="n">
-        <v>9462</v>
+        <v>8502</v>
       </c>
       <c r="D181" t="n">
-        <v>10858</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="182">
@@ -7930,10 +9136,10 @@
         <v>1396</v>
       </c>
       <c r="C182" t="n">
-        <v>9462</v>
+        <v>8535</v>
       </c>
       <c r="D182" t="n">
-        <v>10858</v>
+        <v>9931</v>
       </c>
     </row>
     <row r="183">
@@ -7946,10 +9152,10 @@
         <v>1396</v>
       </c>
       <c r="C183" t="n">
-        <v>9462</v>
+        <v>8411</v>
       </c>
       <c r="D183" t="n">
-        <v>10858</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="184">
@@ -7962,10 +9168,10 @@
         <v>1396</v>
       </c>
       <c r="C184" t="n">
-        <v>9462</v>
+        <v>8472</v>
       </c>
       <c r="D184" t="n">
-        <v>10858</v>
+        <v>9868</v>
       </c>
     </row>
     <row r="185">
@@ -7978,10 +9184,10 @@
         <v>578</v>
       </c>
       <c r="C185" t="n">
-        <v>10280</v>
+        <v>9395</v>
       </c>
       <c r="D185" t="n">
-        <v>10858</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="186">
@@ -7994,10 +9200,10 @@
         <v>578</v>
       </c>
       <c r="C186" t="n">
-        <v>10280</v>
+        <v>9372</v>
       </c>
       <c r="D186" t="n">
-        <v>10858</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="187">
@@ -8010,10 +9216,10 @@
         <v>578</v>
       </c>
       <c r="C187" t="n">
-        <v>10280</v>
+        <v>9465</v>
       </c>
       <c r="D187" t="n">
-        <v>10858</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="188">
@@ -8026,10 +9232,10 @@
         <v>578</v>
       </c>
       <c r="C188" t="n">
-        <v>10280</v>
+        <v>9453</v>
       </c>
       <c r="D188" t="n">
-        <v>10858</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="189">
@@ -8042,10 +9248,10 @@
         <v>578</v>
       </c>
       <c r="C189" t="n">
-        <v>10280</v>
+        <v>9326</v>
       </c>
       <c r="D189" t="n">
-        <v>10858</v>
+        <v>9904</v>
       </c>
     </row>
     <row r="190">
@@ -8058,10 +9264,10 @@
         <v>578</v>
       </c>
       <c r="C190" t="n">
-        <v>10280</v>
+        <v>9135</v>
       </c>
       <c r="D190" t="n">
-        <v>10858</v>
+        <v>9713</v>
       </c>
     </row>
     <row r="191">
@@ -8074,10 +9280,10 @@
         <v>578</v>
       </c>
       <c r="C191" t="n">
-        <v>10280</v>
+        <v>9154</v>
       </c>
       <c r="D191" t="n">
-        <v>10858</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="192">
@@ -8090,10 +9296,10 @@
         <v>578</v>
       </c>
       <c r="C192" t="n">
-        <v>10280</v>
+        <v>8909</v>
       </c>
       <c r="D192" t="n">
-        <v>10858</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="193">
@@ -8106,10 +9312,10 @@
         <v>578</v>
       </c>
       <c r="C193" t="n">
-        <v>10280</v>
+        <v>8850</v>
       </c>
       <c r="D193" t="n">
-        <v>10858</v>
+        <v>9428</v>
       </c>
     </row>
     <row r="194">
@@ -8122,10 +9328,10 @@
         <v>578</v>
       </c>
       <c r="C194" t="n">
-        <v>10280</v>
+        <v>8984</v>
       </c>
       <c r="D194" t="n">
-        <v>10858</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="195">
@@ -8138,10 +9344,10 @@
         <v>578</v>
       </c>
       <c r="C195" t="n">
-        <v>10280</v>
+        <v>9185</v>
       </c>
       <c r="D195" t="n">
-        <v>10858</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="196">
@@ -8154,10 +9360,10 @@
         <v>578</v>
       </c>
       <c r="C196" t="n">
-        <v>10280</v>
+        <v>9053</v>
       </c>
       <c r="D196" t="n">
-        <v>10858</v>
+        <v>9631</v>
       </c>
     </row>
     <row r="197">
@@ -8170,10 +9376,10 @@
         <v>578</v>
       </c>
       <c r="C197" t="n">
-        <v>10280</v>
+        <v>9122</v>
       </c>
       <c r="D197" t="n">
-        <v>10858</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="198">
@@ -8186,10 +9392,10 @@
         <v>578</v>
       </c>
       <c r="C198" t="n">
-        <v>10280</v>
+        <v>9085</v>
       </c>
       <c r="D198" t="n">
-        <v>10858</v>
+        <v>9663</v>
       </c>
     </row>
     <row r="199">
@@ -8202,10 +9408,10 @@
         <v>578</v>
       </c>
       <c r="C199" t="n">
-        <v>10280</v>
+        <v>9092</v>
       </c>
       <c r="D199" t="n">
-        <v>10858</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="200">
@@ -8218,10 +9424,10 @@
         <v>578</v>
       </c>
       <c r="C200" t="n">
-        <v>10280</v>
+        <v>9234</v>
       </c>
       <c r="D200" t="n">
-        <v>10858</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="201">
@@ -8234,10 +9440,10 @@
         <v>578</v>
       </c>
       <c r="C201" t="n">
-        <v>10280</v>
+        <v>9057</v>
       </c>
       <c r="D201" t="n">
-        <v>10858</v>
+        <v>9635</v>
       </c>
     </row>
     <row r="202">
@@ -8250,10 +9456,10 @@
         <v>2438</v>
       </c>
       <c r="C202" t="n">
-        <v>8484</v>
+        <v>7368</v>
       </c>
       <c r="D202" t="n">
-        <v>10922</v>
+        <v>9806</v>
       </c>
     </row>
     <row r="203">
@@ -8266,10 +9472,10 @@
         <v>4405</v>
       </c>
       <c r="C203" t="n">
-        <v>6555</v>
+        <v>5516</v>
       </c>
       <c r="D203" t="n">
-        <v>10960</v>
+        <v>9921</v>
       </c>
     </row>
     <row r="204">
@@ -8282,10 +9488,10 @@
         <v>4405</v>
       </c>
       <c r="C204" t="n">
-        <v>6555</v>
+        <v>5512</v>
       </c>
       <c r="D204" t="n">
-        <v>10960</v>
+        <v>9917</v>
       </c>
     </row>
     <row r="205">
@@ -8298,10 +9504,10 @@
         <v>4405</v>
       </c>
       <c r="C205" t="n">
-        <v>6555</v>
+        <v>5561</v>
       </c>
       <c r="D205" t="n">
-        <v>10960</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="206">
@@ -8314,10 +9520,10 @@
         <v>5292</v>
       </c>
       <c r="C206" t="n">
-        <v>5738</v>
+        <v>4661</v>
       </c>
       <c r="D206" t="n">
-        <v>11030</v>
+        <v>9953</v>
       </c>
     </row>
     <row r="207">
@@ -8330,10 +9536,10 @@
         <v>4333</v>
       </c>
       <c r="C207" t="n">
-        <v>6696</v>
+        <v>5594</v>
       </c>
       <c r="D207" t="n">
-        <v>11029</v>
+        <v>9927</v>
       </c>
     </row>
     <row r="208">
@@ -8346,10 +9552,10 @@
         <v>4333</v>
       </c>
       <c r="C208" t="n">
-        <v>6696</v>
+        <v>5618</v>
       </c>
       <c r="D208" t="n">
-        <v>11029</v>
+        <v>9951</v>
       </c>
     </row>
     <row r="209">
@@ -8362,10 +9568,10 @@
         <v>5320</v>
       </c>
       <c r="C209" t="n">
-        <v>5713</v>
+        <v>4660</v>
       </c>
       <c r="D209" t="n">
-        <v>11033</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="210">
@@ -8378,10 +9584,10 @@
         <v>4356</v>
       </c>
       <c r="C210" t="n">
-        <v>6677</v>
+        <v>5538</v>
       </c>
       <c r="D210" t="n">
-        <v>11033</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="211">
@@ -8394,10 +9600,10 @@
         <v>4356</v>
       </c>
       <c r="C211" t="n">
-        <v>6677</v>
+        <v>5553</v>
       </c>
       <c r="D211" t="n">
-        <v>11033</v>
+        <v>9909</v>
       </c>
     </row>
     <row r="212">
@@ -8410,10 +9616,10 @@
         <v>4356</v>
       </c>
       <c r="C212" t="n">
-        <v>6677</v>
+        <v>5529</v>
       </c>
       <c r="D212" t="n">
-        <v>11033</v>
+        <v>9885</v>
       </c>
     </row>
     <row r="213">
@@ -8426,10 +9632,10 @@
         <v>3455</v>
       </c>
       <c r="C213" t="n">
-        <v>7578</v>
+        <v>6511</v>
       </c>
       <c r="D213" t="n">
-        <v>11033</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="214">
@@ -8442,10 +9648,10 @@
         <v>607</v>
       </c>
       <c r="C214" t="n">
-        <v>10424</v>
+        <v>9371</v>
       </c>
       <c r="D214" t="n">
-        <v>11031</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="215">
@@ -8458,10 +9664,10 @@
         <v>607</v>
       </c>
       <c r="C215" t="n">
-        <v>10424</v>
+        <v>9166</v>
       </c>
       <c r="D215" t="n">
-        <v>11031</v>
+        <v>9773</v>
       </c>
     </row>
     <row r="216">
@@ -8474,10 +9680,10 @@
         <v>607</v>
       </c>
       <c r="C216" t="n">
-        <v>10424</v>
+        <v>9024</v>
       </c>
       <c r="D216" t="n">
-        <v>11031</v>
+        <v>9631</v>
       </c>
     </row>
     <row r="217">
@@ -8490,10 +9696,10 @@
         <v>607</v>
       </c>
       <c r="C217" t="n">
-        <v>10424</v>
+        <v>8721</v>
       </c>
       <c r="D217" t="n">
-        <v>11031</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="218">
@@ -8506,10 +9712,10 @@
         <v>607</v>
       </c>
       <c r="C218" t="n">
-        <v>10424</v>
+        <v>8796</v>
       </c>
       <c r="D218" t="n">
-        <v>11031</v>
+        <v>9403</v>
       </c>
     </row>
     <row r="219">
@@ -8522,10 +9728,10 @@
         <v>607</v>
       </c>
       <c r="C219" t="n">
-        <v>10424</v>
+        <v>8816</v>
       </c>
       <c r="D219" t="n">
-        <v>11031</v>
+        <v>9423</v>
       </c>
     </row>
     <row r="220">
@@ -8538,10 +9744,10 @@
         <v>607</v>
       </c>
       <c r="C220" t="n">
-        <v>10424</v>
+        <v>8960</v>
       </c>
       <c r="D220" t="n">
-        <v>11031</v>
+        <v>9567</v>
       </c>
     </row>
     <row r="221">
@@ -8554,10 +9760,10 @@
         <v>607</v>
       </c>
       <c r="C221" t="n">
-        <v>10424</v>
+        <v>9053</v>
       </c>
       <c r="D221" t="n">
-        <v>11031</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="222">
@@ -8570,10 +9776,10 @@
         <v>607</v>
       </c>
       <c r="C222" t="n">
-        <v>10424</v>
+        <v>9104</v>
       </c>
       <c r="D222" t="n">
-        <v>11031</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="223">
@@ -8586,10 +9792,10 @@
         <v>607</v>
       </c>
       <c r="C223" t="n">
-        <v>10424</v>
+        <v>9218</v>
       </c>
       <c r="D223" t="n">
-        <v>11031</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="224">
@@ -8602,10 +9808,10 @@
         <v>607</v>
       </c>
       <c r="C224" t="n">
-        <v>10424</v>
+        <v>9219</v>
       </c>
       <c r="D224" t="n">
-        <v>11031</v>
+        <v>9826</v>
       </c>
     </row>
     <row r="225">
@@ -8618,10 +9824,10 @@
         <v>689</v>
       </c>
       <c r="C225" t="n">
-        <v>10277</v>
+        <v>9591</v>
       </c>
       <c r="D225" t="n">
-        <v>10966</v>
+        <v>10280</v>
       </c>
     </row>
     <row r="226">
@@ -8634,10 +9840,10 @@
         <v>2779</v>
       </c>
       <c r="C226" t="n">
-        <v>8327</v>
+        <v>7628</v>
       </c>
       <c r="D226" t="n">
-        <v>11106</v>
+        <v>10407</v>
       </c>
     </row>
     <row r="227">
@@ -8650,10 +9856,10 @@
         <v>6511</v>
       </c>
       <c r="C227" t="n">
-        <v>4609</v>
+        <v>3889</v>
       </c>
       <c r="D227" t="n">
-        <v>11120</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="228">
@@ -8666,10 +9872,10 @@
         <v>6511</v>
       </c>
       <c r="C228" t="n">
-        <v>4609</v>
+        <v>3810</v>
       </c>
       <c r="D228" t="n">
-        <v>11120</v>
+        <v>10321</v>
       </c>
     </row>
     <row r="229">
@@ -8682,10 +9888,10 @@
         <v>6511</v>
       </c>
       <c r="C229" t="n">
-        <v>4609</v>
+        <v>3937</v>
       </c>
       <c r="D229" t="n">
-        <v>11120</v>
+        <v>10448</v>
       </c>
     </row>
     <row r="230">
@@ -8698,10 +9904,10 @@
         <v>8349</v>
       </c>
       <c r="C230" t="n">
-        <v>2780</v>
+        <v>2233</v>
       </c>
       <c r="D230" t="n">
-        <v>11129</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="231">
@@ -8714,10 +9920,10 @@
         <v>8349</v>
       </c>
       <c r="C231" t="n">
-        <v>2780</v>
+        <v>2164</v>
       </c>
       <c r="D231" t="n">
-        <v>11129</v>
+        <v>10513</v>
       </c>
     </row>
     <row r="232">
@@ -8730,10 +9936,10 @@
         <v>8349</v>
       </c>
       <c r="C232" t="n">
-        <v>2780</v>
+        <v>2118</v>
       </c>
       <c r="D232" t="n">
-        <v>11129</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="233">
@@ -8746,10 +9952,10 @@
         <v>7677</v>
       </c>
       <c r="C233" t="n">
-        <v>3452</v>
+        <v>2785</v>
       </c>
       <c r="D233" t="n">
-        <v>11129</v>
+        <v>10462</v>
       </c>
     </row>
     <row r="234">
@@ -8762,10 +9968,10 @@
         <v>6837</v>
       </c>
       <c r="C234" t="n">
-        <v>4291</v>
+        <v>3603</v>
       </c>
       <c r="D234" t="n">
-        <v>11128</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="235">
@@ -8778,10 +9984,10 @@
         <v>6837</v>
       </c>
       <c r="C235" t="n">
-        <v>4291</v>
+        <v>3660</v>
       </c>
       <c r="D235" t="n">
-        <v>11128</v>
+        <v>10497</v>
       </c>
     </row>
     <row r="236">
@@ -8794,10 +10000,10 @@
         <v>6837</v>
       </c>
       <c r="C236" t="n">
-        <v>4291</v>
+        <v>3738</v>
       </c>
       <c r="D236" t="n">
-        <v>11128</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="237">
@@ -8810,10 +10016,10 @@
         <v>6837</v>
       </c>
       <c r="C237" t="n">
-        <v>4291</v>
+        <v>3723</v>
       </c>
       <c r="D237" t="n">
-        <v>11128</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="238">
@@ -8826,10 +10032,10 @@
         <v>6837</v>
       </c>
       <c r="C238" t="n">
-        <v>4291</v>
+        <v>3723</v>
       </c>
       <c r="D238" t="n">
-        <v>11128</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="239">
@@ -8842,10 +10048,10 @@
         <v>5872</v>
       </c>
       <c r="C239" t="n">
-        <v>5256</v>
+        <v>4687</v>
       </c>
       <c r="D239" t="n">
-        <v>11128</v>
+        <v>10559</v>
       </c>
     </row>
     <row r="240">
@@ -8858,10 +10064,10 @@
         <v>5873</v>
       </c>
       <c r="C240" t="n">
-        <v>5276</v>
+        <v>4631</v>
       </c>
       <c r="D240" t="n">
-        <v>11149</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="241">
@@ -8874,10 +10080,10 @@
         <v>5873</v>
       </c>
       <c r="C241" t="n">
-        <v>5276</v>
+        <v>4683</v>
       </c>
       <c r="D241" t="n">
-        <v>11149</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="242">
@@ -8890,10 +10096,10 @@
         <v>5873</v>
       </c>
       <c r="C242" t="n">
-        <v>5276</v>
+        <v>4736</v>
       </c>
       <c r="D242" t="n">
-        <v>11149</v>
+        <v>10609</v>
       </c>
     </row>
     <row r="243">
@@ -8906,10 +10112,10 @@
         <v>5873</v>
       </c>
       <c r="C243" t="n">
-        <v>5276</v>
+        <v>4790</v>
       </c>
       <c r="D243" t="n">
-        <v>11149</v>
+        <v>10663</v>
       </c>
     </row>
     <row r="244">
@@ -8922,10 +10128,10 @@
         <v>7468</v>
       </c>
       <c r="C244" t="n">
-        <v>3742</v>
+        <v>3241</v>
       </c>
       <c r="D244" t="n">
-        <v>11210</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="245">
@@ -8938,10 +10144,10 @@
         <v>7468</v>
       </c>
       <c r="C245" t="n">
-        <v>3742</v>
+        <v>3213</v>
       </c>
       <c r="D245" t="n">
-        <v>11210</v>
+        <v>10681</v>
       </c>
     </row>
     <row r="246">
@@ -8954,10 +10160,10 @@
         <v>6715</v>
       </c>
       <c r="C246" t="n">
-        <v>4516</v>
+        <v>3987</v>
       </c>
       <c r="D246" t="n">
-        <v>11231</v>
+        <v>10702</v>
       </c>
     </row>
     <row r="247">
@@ -8970,10 +10176,10 @@
         <v>6715</v>
       </c>
       <c r="C247" t="n">
-        <v>4516</v>
+        <v>3993</v>
       </c>
       <c r="D247" t="n">
-        <v>11231</v>
+        <v>10708</v>
       </c>
     </row>
     <row r="248">
@@ -8986,10 +10192,10 @@
         <v>5832</v>
       </c>
       <c r="C248" t="n">
-        <v>5398</v>
+        <v>4881</v>
       </c>
       <c r="D248" t="n">
-        <v>11230</v>
+        <v>10713</v>
       </c>
     </row>
     <row r="249">
@@ -9002,10 +10208,10 @@
         <v>5832</v>
       </c>
       <c r="C249" t="n">
-        <v>5398</v>
+        <v>4881</v>
       </c>
       <c r="D249" t="n">
-        <v>11230</v>
+        <v>10713</v>
       </c>
     </row>
     <row r="250">
@@ -9018,10 +10224,10 @@
         <v>5832</v>
       </c>
       <c r="C250" t="n">
-        <v>5398</v>
+        <v>4862</v>
       </c>
       <c r="D250" t="n">
-        <v>11230</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="251">
@@ -9034,10 +10240,10 @@
         <v>5832</v>
       </c>
       <c r="C251" t="n">
-        <v>5398</v>
+        <v>4896</v>
       </c>
       <c r="D251" t="n">
-        <v>11230</v>
+        <v>10728</v>
       </c>
     </row>
     <row r="252">
@@ -9050,10 +10256,10 @@
         <v>4883</v>
       </c>
       <c r="C252" t="n">
-        <v>6346</v>
+        <v>5843</v>
       </c>
       <c r="D252" t="n">
-        <v>11229</v>
+        <v>10726</v>
       </c>
     </row>
     <row r="253">
@@ -9066,10 +10272,10 @@
         <v>3998</v>
       </c>
       <c r="C253" t="n">
-        <v>7231</v>
+        <v>6759</v>
       </c>
       <c r="D253" t="n">
-        <v>11229</v>
+        <v>10757</v>
       </c>
     </row>
     <row r="254">
@@ -9082,10 +10288,10 @@
         <v>447</v>
       </c>
       <c r="C254" t="n">
-        <v>10781</v>
+        <v>10293</v>
       </c>
       <c r="D254" t="n">
-        <v>11228</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="255">
@@ -9098,10 +10304,10 @@
         <v>260</v>
       </c>
       <c r="C255" t="n">
-        <v>10994</v>
+        <v>10378</v>
       </c>
       <c r="D255" t="n">
-        <v>11254</v>
+        <v>10638</v>
       </c>
     </row>
     <row r="256">
@@ -9114,10 +10320,10 @@
         <v>260</v>
       </c>
       <c r="C256" t="n">
-        <v>10994</v>
+        <v>10258</v>
       </c>
       <c r="D256" t="n">
-        <v>11254</v>
+        <v>10518</v>
       </c>
     </row>
     <row r="257">
@@ -9130,10 +10336,10 @@
         <v>260</v>
       </c>
       <c r="C257" t="n">
-        <v>10994</v>
+        <v>10340</v>
       </c>
       <c r="D257" t="n">
-        <v>11254</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="258">
@@ -9146,10 +10352,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="n">
-        <v>10994</v>
+        <v>10341</v>
       </c>
       <c r="D258" t="n">
-        <v>11254</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="259">
@@ -9162,10 +10368,10 @@
         <v>260</v>
       </c>
       <c r="C259" t="n">
-        <v>10994</v>
+        <v>10341</v>
       </c>
       <c r="D259" t="n">
-        <v>11254</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="260">
@@ -9178,10 +10384,10 @@
         <v>260</v>
       </c>
       <c r="C260" t="n">
-        <v>10994</v>
+        <v>10371</v>
       </c>
       <c r="D260" t="n">
-        <v>11254</v>
+        <v>10631</v>
       </c>
     </row>
     <row r="261">
@@ -9194,10 +10400,10 @@
         <v>954</v>
       </c>
       <c r="C261" t="n">
-        <v>10318</v>
+        <v>9702</v>
       </c>
       <c r="D261" t="n">
-        <v>11272</v>
+        <v>10656</v>
       </c>
     </row>
     <row r="262">
@@ -9210,10 +10416,10 @@
         <v>954</v>
       </c>
       <c r="C262" t="n">
-        <v>10318</v>
+        <v>9684</v>
       </c>
       <c r="D262" t="n">
-        <v>11272</v>
+        <v>10638</v>
       </c>
     </row>
     <row r="263">
@@ -9226,10 +10432,10 @@
         <v>954</v>
       </c>
       <c r="C263" t="n">
-        <v>10318</v>
+        <v>9734</v>
       </c>
       <c r="D263" t="n">
-        <v>11272</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="264">
@@ -9242,10 +10448,10 @@
         <v>954</v>
       </c>
       <c r="C264" t="n">
-        <v>10318</v>
+        <v>9734</v>
       </c>
       <c r="D264" t="n">
-        <v>11272</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="265">
@@ -9258,10 +10464,10 @@
         <v>162</v>
       </c>
       <c r="C265" t="n">
-        <v>11109</v>
+        <v>10479</v>
       </c>
       <c r="D265" t="n">
-        <v>11271</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="266">
@@ -9274,10 +10480,10 @@
         <v>367</v>
       </c>
       <c r="C266" t="n">
-        <v>10970</v>
+        <v>10404</v>
       </c>
       <c r="D266" t="n">
-        <v>11337</v>
+        <v>10771</v>
       </c>
     </row>
     <row r="267">
@@ -9290,10 +10496,10 @@
         <v>1348</v>
       </c>
       <c r="C267" t="n">
-        <v>10033</v>
+        <v>9571</v>
       </c>
       <c r="D267" t="n">
-        <v>11381</v>
+        <v>10919</v>
       </c>
     </row>
     <row r="268">
@@ -9306,10 +10512,10 @@
         <v>2326</v>
       </c>
       <c r="C268" t="n">
-        <v>9087</v>
+        <v>8620</v>
       </c>
       <c r="D268" t="n">
-        <v>11413</v>
+        <v>10946</v>
       </c>
     </row>
     <row r="269">
@@ -9322,10 +10528,10 @@
         <v>3205</v>
       </c>
       <c r="C269" t="n">
-        <v>8205</v>
+        <v>7734</v>
       </c>
       <c r="D269" t="n">
-        <v>11410</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="270">
@@ -9338,10 +10544,10 @@
         <v>3205</v>
       </c>
       <c r="C270" t="n">
-        <v>8205</v>
+        <v>7786</v>
       </c>
       <c r="D270" t="n">
-        <v>11410</v>
+        <v>10991</v>
       </c>
     </row>
     <row r="271">
@@ -9354,10 +10560,10 @@
         <v>2252</v>
       </c>
       <c r="C271" t="n">
-        <v>9157</v>
+        <v>8753</v>
       </c>
       <c r="D271" t="n">
-        <v>11409</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="272">
@@ -9370,10 +10576,10 @@
         <v>2252</v>
       </c>
       <c r="C272" t="n">
-        <v>9157</v>
+        <v>8758</v>
       </c>
       <c r="D272" t="n">
-        <v>11409</v>
+        <v>11010</v>
       </c>
     </row>
     <row r="273">
@@ -9386,10 +10592,10 @@
         <v>577</v>
       </c>
       <c r="C273" t="n">
-        <v>10830</v>
+        <v>10417</v>
       </c>
       <c r="D273" t="n">
-        <v>11407</v>
+        <v>10994</v>
       </c>
     </row>
     <row r="274">
@@ -9402,10 +10608,10 @@
         <v>577</v>
       </c>
       <c r="C274" t="n">
-        <v>10830</v>
+        <v>10349</v>
       </c>
       <c r="D274" t="n">
-        <v>11407</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="275">
@@ -9418,10 +10624,10 @@
         <v>577</v>
       </c>
       <c r="C275" t="n">
-        <v>10830</v>
+        <v>10349</v>
       </c>
       <c r="D275" t="n">
-        <v>11407</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="276">
@@ -9434,10 +10640,10 @@
         <v>577</v>
       </c>
       <c r="C276" t="n">
-        <v>10830</v>
+        <v>10370</v>
       </c>
       <c r="D276" t="n">
-        <v>11407</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="277">
@@ -9450,10 +10656,10 @@
         <v>577</v>
       </c>
       <c r="C277" t="n">
-        <v>10830</v>
+        <v>10423</v>
       </c>
       <c r="D277" t="n">
-        <v>11407</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="278">
@@ -9466,10 +10672,10 @@
         <v>577</v>
       </c>
       <c r="C278" t="n">
-        <v>10830</v>
+        <v>10371</v>
       </c>
       <c r="D278" t="n">
-        <v>11407</v>
+        <v>10948</v>
       </c>
     </row>
     <row r="279">
@@ -9482,10 +10688,10 @@
         <v>1429</v>
       </c>
       <c r="C279" t="n">
-        <v>10039</v>
+        <v>9500</v>
       </c>
       <c r="D279" t="n">
-        <v>11468</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="280">
@@ -9498,10 +10704,10 @@
         <v>733</v>
       </c>
       <c r="C280" t="n">
-        <v>10734</v>
+        <v>10237</v>
       </c>
       <c r="D280" t="n">
-        <v>11467</v>
+        <v>10970</v>
       </c>
     </row>
     <row r="281">
@@ -9514,10 +10720,10 @@
         <v>1605</v>
       </c>
       <c r="C281" t="n">
-        <v>9883</v>
+        <v>9373</v>
       </c>
       <c r="D281" t="n">
-        <v>11488</v>
+        <v>10978</v>
       </c>
     </row>
     <row r="282">
@@ -9530,10 +10736,10 @@
         <v>788</v>
       </c>
       <c r="C282" t="n">
-        <v>10700</v>
+        <v>9972</v>
       </c>
       <c r="D282" t="n">
-        <v>11488</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="283">
@@ -9546,10 +10752,10 @@
         <v>788</v>
       </c>
       <c r="C283" t="n">
-        <v>10700</v>
+        <v>10089</v>
       </c>
       <c r="D283" t="n">
-        <v>11488</v>
+        <v>10877</v>
       </c>
     </row>
     <row r="284">
@@ -9562,10 +10768,10 @@
         <v>788</v>
       </c>
       <c r="C284" t="n">
-        <v>10700</v>
+        <v>9952</v>
       </c>
       <c r="D284" t="n">
-        <v>11488</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="285">
@@ -9578,10 +10784,10 @@
         <v>788</v>
       </c>
       <c r="C285" t="n">
-        <v>10700</v>
+        <v>9982</v>
       </c>
       <c r="D285" t="n">
-        <v>11488</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="286">
@@ -9594,10 +10800,10 @@
         <v>788</v>
       </c>
       <c r="C286" t="n">
-        <v>10700</v>
+        <v>10096</v>
       </c>
       <c r="D286" t="n">
-        <v>11488</v>
+        <v>10884</v>
       </c>
     </row>
     <row r="287">
@@ -9610,10 +10816,10 @@
         <v>788</v>
       </c>
       <c r="C287" t="n">
-        <v>10700</v>
+        <v>10148</v>
       </c>
       <c r="D287" t="n">
-        <v>11488</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="288">
@@ -9626,10 +10832,10 @@
         <v>788</v>
       </c>
       <c r="C288" t="n">
-        <v>10700</v>
+        <v>10252</v>
       </c>
       <c r="D288" t="n">
-        <v>11488</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="289">
@@ -9642,10 +10848,10 @@
         <v>788</v>
       </c>
       <c r="C289" t="n">
-        <v>10700</v>
+        <v>10294</v>
       </c>
       <c r="D289" t="n">
-        <v>11488</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="290">
@@ -9658,10 +10864,10 @@
         <v>762</v>
       </c>
       <c r="C290" t="n">
-        <v>10808</v>
+        <v>10419</v>
       </c>
       <c r="D290" t="n">
-        <v>11570</v>
+        <v>11181</v>
       </c>
     </row>
     <row r="291">
@@ -9674,10 +10880,10 @@
         <v>1659</v>
       </c>
       <c r="C291" t="n">
-        <v>9992</v>
+        <v>9549</v>
       </c>
       <c r="D291" t="n">
-        <v>11651</v>
+        <v>11208</v>
       </c>
     </row>
     <row r="292">
@@ -9690,10 +10896,10 @@
         <v>3358</v>
       </c>
       <c r="C292" t="n">
-        <v>8278</v>
+        <v>7860</v>
       </c>
       <c r="D292" t="n">
-        <v>11636</v>
+        <v>11218</v>
       </c>
     </row>
     <row r="293">
@@ -9706,10 +10912,10 @@
         <v>4200</v>
       </c>
       <c r="C293" t="n">
-        <v>7472</v>
+        <v>6986</v>
       </c>
       <c r="D293" t="n">
-        <v>11672</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="294">
@@ -9722,10 +10928,10 @@
         <v>5163</v>
       </c>
       <c r="C294" t="n">
-        <v>6520</v>
+        <v>6035</v>
       </c>
       <c r="D294" t="n">
-        <v>11683</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="295">
@@ -9738,10 +10944,10 @@
         <v>5163</v>
       </c>
       <c r="C295" t="n">
-        <v>6520</v>
+        <v>6035</v>
       </c>
       <c r="D295" t="n">
-        <v>11683</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="296">
@@ -9754,10 +10960,10 @@
         <v>5163</v>
       </c>
       <c r="C296" t="n">
-        <v>6520</v>
+        <v>6021</v>
       </c>
       <c r="D296" t="n">
-        <v>11683</v>
+        <v>11184</v>
       </c>
     </row>
     <row r="297">
@@ -9770,10 +10976,10 @@
         <v>5163</v>
       </c>
       <c r="C297" t="n">
-        <v>6520</v>
+        <v>6118</v>
       </c>
       <c r="D297" t="n">
-        <v>11683</v>
+        <v>11281</v>
       </c>
     </row>
     <row r="298">
@@ -9786,10 +10992,10 @@
         <v>5163</v>
       </c>
       <c r="C298" t="n">
-        <v>6520</v>
+        <v>6101</v>
       </c>
       <c r="D298" t="n">
-        <v>11683</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="299">
@@ -9802,10 +11008,10 @@
         <v>4253</v>
       </c>
       <c r="C299" t="n">
-        <v>7429</v>
+        <v>6964</v>
       </c>
       <c r="D299" t="n">
-        <v>11682</v>
+        <v>11217</v>
       </c>
     </row>
     <row r="300">
@@ -9818,10 +11024,10 @@
         <v>1359</v>
       </c>
       <c r="C300" t="n">
-        <v>10321</v>
+        <v>9866</v>
       </c>
       <c r="D300" t="n">
-        <v>11680</v>
+        <v>11225</v>
       </c>
     </row>
     <row r="301">
@@ -9834,10 +11040,10 @@
         <v>410</v>
       </c>
       <c r="C301" t="n">
-        <v>11270</v>
+        <v>10815</v>
       </c>
       <c r="D301" t="n">
-        <v>11680</v>
+        <v>11225</v>
       </c>
     </row>
     <row r="302">
@@ -9850,10 +11056,10 @@
         <v>410</v>
       </c>
       <c r="C302" t="n">
-        <v>11270</v>
+        <v>10846</v>
       </c>
       <c r="D302" t="n">
-        <v>11680</v>
+        <v>11256</v>
       </c>
     </row>
     <row r="303">
@@ -9866,10 +11072,10 @@
         <v>410</v>
       </c>
       <c r="C303" t="n">
-        <v>11270</v>
+        <v>10726</v>
       </c>
       <c r="D303" t="n">
-        <v>11680</v>
+        <v>11136</v>
       </c>
     </row>
     <row r="304">
@@ -9882,10 +11088,10 @@
         <v>410</v>
       </c>
       <c r="C304" t="n">
-        <v>11270</v>
+        <v>10613</v>
       </c>
       <c r="D304" t="n">
-        <v>11680</v>
+        <v>11023</v>
       </c>
     </row>
     <row r="305">
@@ -9898,10 +11104,10 @@
         <v>410</v>
       </c>
       <c r="C305" t="n">
-        <v>11270</v>
+        <v>10775</v>
       </c>
       <c r="D305" t="n">
-        <v>11680</v>
+        <v>11185</v>
       </c>
     </row>
     <row r="306">
@@ -9914,10 +11120,10 @@
         <v>1079</v>
       </c>
       <c r="C306" t="n">
-        <v>10574</v>
+        <v>10032</v>
       </c>
       <c r="D306" t="n">
-        <v>11653</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="307">
@@ -9927,13 +11133,13 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>141</v>
+        <v>354</v>
       </c>
       <c r="C307" t="n">
-        <v>11511</v>
+        <v>10734</v>
       </c>
       <c r="D307" t="n">
-        <v>11652</v>
+        <v>11088</v>
       </c>
     </row>
     <row r="308">
@@ -9943,13 +11149,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C308" t="n">
-        <v>11511</v>
+        <v>10805</v>
       </c>
       <c r="D308" t="n">
-        <v>11652</v>
+        <v>10954</v>
       </c>
     </row>
     <row r="309">
@@ -9959,13 +11165,813 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>354</v>
+        <v>149</v>
       </c>
       <c r="C309" t="n">
-        <v>11287</v>
+        <v>10989</v>
       </c>
       <c r="D309" t="n">
-        <v>11641</v>
+        <v>11138</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>08/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>149</v>
+      </c>
+      <c r="C310" t="n">
+        <v>11047</v>
+      </c>
+      <c r="D310" t="n">
+        <v>11196</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>09/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>149</v>
+      </c>
+      <c r="C311" t="n">
+        <v>11134</v>
+      </c>
+      <c r="D311" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>10/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C312" t="n">
+        <v>10332</v>
+      </c>
+      <c r="D312" t="n">
+        <v>11414</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>3880</v>
+      </c>
+      <c r="C313" t="n">
+        <v>7596</v>
+      </c>
+      <c r="D313" t="n">
+        <v>11476</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>12/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>4849</v>
+      </c>
+      <c r="C314" t="n">
+        <v>6645</v>
+      </c>
+      <c r="D314" t="n">
+        <v>11494</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>15/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>5069</v>
+      </c>
+      <c r="C315" t="n">
+        <v>6484</v>
+      </c>
+      <c r="D315" t="n">
+        <v>11553</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>16/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>5965</v>
+      </c>
+      <c r="C316" t="n">
+        <v>5616</v>
+      </c>
+      <c r="D316" t="n">
+        <v>11581</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>7896</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3667</v>
+      </c>
+      <c r="D317" t="n">
+        <v>11563</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>18/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>8858</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2656</v>
+      </c>
+      <c r="D318" t="n">
+        <v>11514</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>8698</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2809</v>
+      </c>
+      <c r="D319" t="n">
+        <v>11507</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>8009</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3547</v>
+      </c>
+      <c r="D320" t="n">
+        <v>11556</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>23/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>8009</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3543</v>
+      </c>
+      <c r="D321" t="n">
+        <v>11552</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>24/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>8009</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3523</v>
+      </c>
+      <c r="D322" t="n">
+        <v>11532</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>8788</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2750</v>
+      </c>
+      <c r="D323" t="n">
+        <v>11538</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>8215</v>
+      </c>
+      <c r="C324" t="n">
+        <v>3358</v>
+      </c>
+      <c r="D324" t="n">
+        <v>11573</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>29/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>8215</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3357</v>
+      </c>
+      <c r="D325" t="n">
+        <v>11572</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>30/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>8215</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3338</v>
+      </c>
+      <c r="D326" t="n">
+        <v>11553</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>8215</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3358</v>
+      </c>
+      <c r="D327" t="n">
+        <v>11573</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>01/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>8215</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3405</v>
+      </c>
+      <c r="D328" t="n">
+        <v>11620</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>02/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>8215</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3405</v>
+      </c>
+      <c r="D329" t="n">
+        <v>11620</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>05/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>9429</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2244</v>
+      </c>
+      <c r="D330" t="n">
+        <v>11673</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>06/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>9429</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2248</v>
+      </c>
+      <c r="D331" t="n">
+        <v>11677</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>10621</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D332" t="n">
+        <v>11684</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>08/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>10875</v>
+      </c>
+      <c r="C333" t="n">
+        <v>810</v>
+      </c>
+      <c r="D333" t="n">
+        <v>11685</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>09/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>11010</v>
+      </c>
+      <c r="C334" t="n">
+        <v>676</v>
+      </c>
+      <c r="D334" t="n">
+        <v>11686</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>12/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>10848</v>
+      </c>
+      <c r="C335" t="n">
+        <v>836</v>
+      </c>
+      <c r="D335" t="n">
+        <v>11684</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>13/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>10848</v>
+      </c>
+      <c r="C336" t="n">
+        <v>829</v>
+      </c>
+      <c r="D336" t="n">
+        <v>11677</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>14/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>10848</v>
+      </c>
+      <c r="C337" t="n">
+        <v>843</v>
+      </c>
+      <c r="D337" t="n">
+        <v>11691</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>15/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>10848</v>
+      </c>
+      <c r="C338" t="n">
+        <v>844</v>
+      </c>
+      <c r="D338" t="n">
+        <v>11692</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>16/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>11190</v>
+      </c>
+      <c r="C339" t="n">
+        <v>508</v>
+      </c>
+      <c r="D339" t="n">
+        <v>11698</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>10891</v>
+      </c>
+      <c r="C340" t="n">
+        <v>806</v>
+      </c>
+      <c r="D340" t="n">
+        <v>11697</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>20/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>10763</v>
+      </c>
+      <c r="C341" t="n">
+        <v>919</v>
+      </c>
+      <c r="D341" t="n">
+        <v>11682</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>21/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>10763</v>
+      </c>
+      <c r="C342" t="n">
+        <v>927</v>
+      </c>
+      <c r="D342" t="n">
+        <v>11690</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>10552</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1129</v>
+      </c>
+      <c r="D343" t="n">
+        <v>11681</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>23/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>10552</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1135</v>
+      </c>
+      <c r="D344" t="n">
+        <v>11687</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>26/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>10420</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1270</v>
+      </c>
+      <c r="D345" t="n">
+        <v>11690</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>27/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>10363</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1329</v>
+      </c>
+      <c r="D346" t="n">
+        <v>11692</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>28/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>10363</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1323</v>
+      </c>
+      <c r="D347" t="n">
+        <v>11686</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>10363</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D348" t="n">
+        <v>11702</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>10312</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1381</v>
+      </c>
+      <c r="D349" t="n">
+        <v>11693</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>03/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>10312</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1391</v>
+      </c>
+      <c r="D350" t="n">
+        <v>11703</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>10122</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1581</v>
+      </c>
+      <c r="D351" t="n">
+        <v>11703</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>05/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>10279</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D352" t="n">
+        <v>11697</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>10501</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1207</v>
+      </c>
+      <c r="D353" t="n">
+        <v>11708</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>07/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>10638</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1087</v>
+      </c>
+      <c r="D354" t="n">
+        <v>11725</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>10818</v>
+      </c>
+      <c r="C355" t="n">
+        <v>900</v>
+      </c>
+      <c r="D355" t="n">
+        <v>11718</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>10818</v>
+      </c>
+      <c r="C356" t="n">
+        <v>890</v>
+      </c>
+      <c r="D356" t="n">
+        <v>11708</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>12/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>10597</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D357" t="n">
+        <v>11682</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>13/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>10597</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D358" t="n">
+        <v>11696</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>14/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>10597</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1112</v>
+      </c>
+      <c r="D359" t="n">
+        <v>11709</v>
       </c>
     </row>
   </sheetData>
